--- a/AccessibleVaccineDashboardData/2021-02-23.xlsx
+++ b/AccessibleVaccineDashboardData/2021-02-23.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID response\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\IDPS immdox\COVID19\COVID Public Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{602263CD-2ED6-4FB5-BCF1-AD7D637C1D7C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C29711C5-32EC-419A-897F-0D7F19F7AA7A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="By Age, Day" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'By Age, Gender, Race'!$A$1:$F$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'By County'!$A$1:$K$258</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="311">
   <si>
     <t>County Name</t>
   </si>
@@ -1574,9 +1575,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1597,7 +1596,7 @@
         <v>298</v>
       </c>
       <c r="B2" s="28">
-        <v>44249</v>
+        <v>44250</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1765,20 +1764,20 @@
         <v>263</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM(C3:C257)</f>
+        <f>SUM(C4:C258)</f>
         <v>7109875</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>4485029</v>
+        <v>4569109</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>3118003</v>
+        <v>3146940</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>1367026</v>
+        <v>1422169</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1851,13 +1850,13 @@
         <v>6800</v>
       </c>
       <c r="D4" s="36">
-        <v>4360</v>
+        <v>4384</v>
       </c>
       <c r="E4" s="36">
-        <v>2815</v>
+        <v>2826</v>
       </c>
       <c r="F4" s="36">
-        <v>1545</v>
+        <v>1558</v>
       </c>
       <c r="G4" s="37">
         <v>48045</v>
@@ -1886,10 +1885,10 @@
         <v>2800</v>
       </c>
       <c r="D5" s="36">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="E5" s="36">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="F5" s="36">
         <v>670</v>
@@ -1921,13 +1920,13 @@
         <v>20500</v>
       </c>
       <c r="D6" s="36">
-        <v>13661</v>
+        <v>13732</v>
       </c>
       <c r="E6" s="36">
-        <v>9206</v>
+        <v>9239</v>
       </c>
       <c r="F6" s="36">
-        <v>4455</v>
+        <v>4493</v>
       </c>
       <c r="G6" s="37">
         <v>67056</v>
@@ -1956,13 +1955,13 @@
         <v>1500</v>
       </c>
       <c r="D7" s="36">
-        <v>3776</v>
+        <v>3882</v>
       </c>
       <c r="E7" s="36">
-        <v>2747</v>
+        <v>2794</v>
       </c>
       <c r="F7" s="36">
-        <v>1029</v>
+        <v>1088</v>
       </c>
       <c r="G7" s="37">
         <v>19803</v>
@@ -1991,13 +1990,13 @@
         <v>1100</v>
       </c>
       <c r="D8" s="36">
-        <v>1973</v>
+        <v>2014</v>
       </c>
       <c r="E8" s="36">
-        <v>1351</v>
+        <v>1358</v>
       </c>
       <c r="F8" s="36">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="G8" s="37">
         <v>6921</v>
@@ -2026,13 +2025,13 @@
         <v>600</v>
       </c>
       <c r="D9" s="36">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E9" s="36">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F9" s="36">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G9" s="37">
         <v>1499</v>
@@ -2061,13 +2060,13 @@
         <v>4700</v>
       </c>
       <c r="D10" s="36">
-        <v>4920</v>
+        <v>5038</v>
       </c>
       <c r="E10" s="36">
-        <v>3454</v>
+        <v>3493</v>
       </c>
       <c r="F10" s="36">
-        <v>1466</v>
+        <v>1545</v>
       </c>
       <c r="G10" s="37">
         <v>38768</v>
@@ -2096,13 +2095,13 @@
         <v>2500</v>
       </c>
       <c r="D11" s="36">
-        <v>4955</v>
+        <v>4901</v>
       </c>
       <c r="E11" s="36">
-        <v>3819</v>
+        <v>3755</v>
       </c>
       <c r="F11" s="36">
-        <v>1136</v>
+        <v>1146</v>
       </c>
       <c r="G11" s="37">
         <v>23704</v>
@@ -2131,10 +2130,10 @@
         <v>9765</v>
       </c>
       <c r="D12" s="36">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="E12" s="36">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="F12" s="36">
         <v>1106</v>
@@ -2166,13 +2165,13 @@
         <v>600</v>
       </c>
       <c r="D13" s="36">
-        <v>2826</v>
+        <v>2919</v>
       </c>
       <c r="E13" s="36">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="F13" s="36">
-        <v>694</v>
+        <v>789</v>
       </c>
       <c r="G13" s="37">
         <v>19763</v>
@@ -2201,13 +2200,13 @@
         <v>14000</v>
       </c>
       <c r="D14" s="36">
-        <v>7166</v>
+        <v>7379</v>
       </c>
       <c r="E14" s="36">
-        <v>5093</v>
+        <v>5255</v>
       </c>
       <c r="F14" s="36">
-        <v>2073</v>
+        <v>2124</v>
       </c>
       <c r="G14" s="37">
         <v>68839</v>
@@ -2271,13 +2270,13 @@
         <v>30050</v>
       </c>
       <c r="D16" s="36">
-        <v>8496</v>
+        <v>9061</v>
       </c>
       <c r="E16" s="36">
-        <v>5580</v>
+        <v>5653</v>
       </c>
       <c r="F16" s="36">
-        <v>2916</v>
+        <v>3408</v>
       </c>
       <c r="G16" s="37">
         <v>26496</v>
@@ -2306,13 +2305,13 @@
         <v>69180</v>
       </c>
       <c r="D17" s="36">
-        <v>36369</v>
+        <v>36862</v>
       </c>
       <c r="E17" s="36">
-        <v>24853</v>
+        <v>24909</v>
       </c>
       <c r="F17" s="36">
-        <v>11516</v>
+        <v>11953</v>
       </c>
       <c r="G17" s="37">
         <v>272969</v>
@@ -2341,13 +2340,13 @@
         <v>515470</v>
       </c>
       <c r="D18" s="36">
-        <v>315022</v>
+        <v>322786</v>
       </c>
       <c r="E18" s="36">
-        <v>215527</v>
+        <v>218547</v>
       </c>
       <c r="F18" s="36">
-        <v>99495</v>
+        <v>104239</v>
       </c>
       <c r="G18" s="37">
         <v>1552823</v>
@@ -2376,13 +2375,13 @@
         <v>1600</v>
       </c>
       <c r="D19" s="36">
-        <v>1766</v>
+        <v>1831</v>
       </c>
       <c r="E19" s="36">
-        <v>1435</v>
+        <v>1484</v>
       </c>
       <c r="F19" s="36">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="G19" s="37">
         <v>10092</v>
@@ -2411,10 +2410,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="36">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="36">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="36">
         <v>24</v>
@@ -2446,13 +2445,13 @@
         <v>3800</v>
       </c>
       <c r="D21" s="36">
-        <v>2947</v>
+        <v>3045</v>
       </c>
       <c r="E21" s="36">
-        <v>1812</v>
+        <v>1859</v>
       </c>
       <c r="F21" s="36">
-        <v>1135</v>
+        <v>1186</v>
       </c>
       <c r="G21" s="37">
         <v>15224</v>
@@ -2481,13 +2480,13 @@
         <v>18450</v>
       </c>
       <c r="D22" s="36">
-        <v>7808</v>
+        <v>7849</v>
       </c>
       <c r="E22" s="36">
-        <v>4958</v>
+        <v>4974</v>
       </c>
       <c r="F22" s="36">
-        <v>2850</v>
+        <v>2875</v>
       </c>
       <c r="G22" s="37">
         <v>73689</v>
@@ -2516,13 +2515,13 @@
         <v>52040</v>
       </c>
       <c r="D23" s="36">
-        <v>57511</v>
+        <v>58278</v>
       </c>
       <c r="E23" s="36">
-        <v>38248</v>
+        <v>38487</v>
       </c>
       <c r="F23" s="36">
-        <v>19263</v>
+        <v>19791</v>
       </c>
       <c r="G23" s="37">
         <v>287683</v>
@@ -2551,13 +2550,13 @@
         <v>39200</v>
       </c>
       <c r="D24" s="36">
-        <v>25892</v>
+        <v>27545</v>
       </c>
       <c r="E24" s="36">
-        <v>18211</v>
+        <v>19768</v>
       </c>
       <c r="F24" s="36">
-        <v>7681</v>
+        <v>7777</v>
       </c>
       <c r="G24" s="37">
         <v>186843</v>
@@ -2586,13 +2585,13 @@
         <v>1800</v>
       </c>
       <c r="D25" s="36">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="E25" s="36">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="F25" s="36">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G25" s="37">
         <v>7706</v>
@@ -2621,13 +2620,13 @@
         <v>500</v>
       </c>
       <c r="D26" s="36">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E26" s="36">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F26" s="36">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" s="37">
         <v>1272</v>
@@ -2656,13 +2655,13 @@
         <v>1400</v>
       </c>
       <c r="D27" s="36">
-        <v>1283</v>
+        <v>1340</v>
       </c>
       <c r="E27" s="36">
-        <v>1034</v>
+        <v>1050</v>
       </c>
       <c r="F27" s="36">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="G27" s="37">
         <v>5317</v>
@@ -2691,13 +2690,13 @@
         <v>3600</v>
       </c>
       <c r="D28" s="36">
-        <v>3913</v>
+        <v>3933</v>
       </c>
       <c r="E28" s="36">
-        <v>2815</v>
+        <v>2827</v>
       </c>
       <c r="F28" s="36">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="G28" s="37">
         <v>30883</v>
@@ -2726,13 +2725,13 @@
         <v>1500</v>
       </c>
       <c r="D29" s="36">
-        <v>2250</v>
+        <v>2302</v>
       </c>
       <c r="E29" s="36">
-        <v>1640</v>
+        <v>1687</v>
       </c>
       <c r="F29" s="36">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="G29" s="37">
         <v>14869</v>
@@ -2761,13 +2760,13 @@
         <v>10815</v>
       </c>
       <c r="D30" s="36">
-        <v>5202</v>
+        <v>5272</v>
       </c>
       <c r="E30" s="36">
-        <v>4020</v>
+        <v>4042</v>
       </c>
       <c r="F30" s="36">
-        <v>1182</v>
+        <v>1230</v>
       </c>
       <c r="G30" s="37">
         <v>39239</v>
@@ -2796,13 +2795,13 @@
         <v>4700</v>
       </c>
       <c r="D31" s="36">
-        <v>3651</v>
+        <v>3835</v>
       </c>
       <c r="E31" s="36">
-        <v>2518</v>
+        <v>2598</v>
       </c>
       <c r="F31" s="36">
-        <v>1133</v>
+        <v>1237</v>
       </c>
       <c r="G31" s="37">
         <v>34853</v>
@@ -2831,13 +2830,13 @@
         <v>1600</v>
       </c>
       <c r="D32" s="36">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="E32" s="36">
-        <v>1750</v>
+        <v>1738</v>
       </c>
       <c r="F32" s="36">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="G32" s="37">
         <v>16817</v>
@@ -2866,13 +2865,13 @@
         <v>1400</v>
       </c>
       <c r="D33" s="36">
-        <v>1748</v>
+        <v>1793</v>
       </c>
       <c r="E33" s="36">
-        <v>1261</v>
+        <v>1303</v>
       </c>
       <c r="F33" s="36">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G33" s="37">
         <v>11263</v>
@@ -2901,13 +2900,13 @@
         <v>104995</v>
       </c>
       <c r="D34" s="36">
-        <v>84967</v>
+        <v>85412</v>
       </c>
       <c r="E34" s="36">
-        <v>54886</v>
+        <v>55179</v>
       </c>
       <c r="F34" s="36">
-        <v>30081</v>
+        <v>30233</v>
       </c>
       <c r="G34" s="37">
         <v>311689</v>
@@ -2936,13 +2935,13 @@
         <v>500</v>
       </c>
       <c r="D35" s="36">
-        <v>1369</v>
+        <v>1391</v>
       </c>
       <c r="E35" s="36">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="F35" s="36">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="G35" s="37">
         <v>10031</v>
@@ -2971,13 +2970,13 @@
         <v>400</v>
       </c>
       <c r="D36" s="36">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="E36" s="36">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F36" s="36">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="G36" s="37">
         <v>4718</v>
@@ -3006,13 +3005,13 @@
         <v>900</v>
       </c>
       <c r="D37" s="36">
-        <v>1545</v>
+        <v>1562</v>
       </c>
       <c r="E37" s="36">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="F37" s="36">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G37" s="37">
         <v>24182</v>
@@ -3041,13 +3040,13 @@
         <v>1400</v>
       </c>
       <c r="D38" s="36">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="E38" s="36">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="F38" s="36">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G38" s="37">
         <v>5607</v>
@@ -3076,13 +3075,13 @@
         <v>14100</v>
       </c>
       <c r="D39" s="36">
-        <v>5058</v>
+        <v>5193</v>
       </c>
       <c r="E39" s="36">
-        <v>3381</v>
+        <v>3454</v>
       </c>
       <c r="F39" s="36">
-        <v>1677</v>
+        <v>1739</v>
       </c>
       <c r="G39" s="37">
         <v>33062</v>
@@ -3111,13 +3110,13 @@
         <v>7500</v>
       </c>
       <c r="D40" s="36">
-        <v>6122</v>
+        <v>6163</v>
       </c>
       <c r="E40" s="36">
-        <v>4084</v>
+        <v>4096</v>
       </c>
       <c r="F40" s="36">
-        <v>2038</v>
+        <v>2067</v>
       </c>
       <c r="G40" s="37">
         <v>40876</v>
@@ -3146,10 +3145,10 @@
         <v>1900</v>
       </c>
       <c r="D41" s="36">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="E41" s="36">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F41" s="36">
         <v>564</v>
@@ -3181,13 +3180,13 @@
         <v>6745</v>
       </c>
       <c r="D42" s="36">
-        <v>2955</v>
+        <v>3123</v>
       </c>
       <c r="E42" s="36">
-        <v>2334</v>
+        <v>2343</v>
       </c>
       <c r="F42" s="36">
-        <v>621</v>
+        <v>780</v>
       </c>
       <c r="G42" s="37">
         <v>8666</v>
@@ -3219,10 +3218,10 @@
         <v>579</v>
       </c>
       <c r="E43" s="36">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="F43" s="36">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="G43" s="37">
         <v>2188</v>
@@ -3251,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="36">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="E44" s="36">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="F44" s="36">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G44" s="37">
         <v>2756</v>
@@ -3286,13 +3285,13 @@
         <v>1000</v>
       </c>
       <c r="D45" s="36">
-        <v>1001</v>
+        <v>1018</v>
       </c>
       <c r="E45" s="36">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F45" s="36">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="G45" s="37">
         <v>6721</v>
@@ -3321,13 +3320,13 @@
         <v>219630</v>
       </c>
       <c r="D46" s="36">
-        <v>163664</v>
+        <v>168437</v>
       </c>
       <c r="E46" s="36">
-        <v>119388</v>
+        <v>121421</v>
       </c>
       <c r="F46" s="36">
-        <v>44276</v>
+        <v>47016</v>
       </c>
       <c r="G46" s="37">
         <v>801716</v>
@@ -3356,10 +3355,10 @@
         <v>800</v>
       </c>
       <c r="D47" s="36">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E47" s="36">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F47" s="36">
         <v>238</v>
@@ -3391,13 +3390,13 @@
         <v>4100</v>
       </c>
       <c r="D48" s="36">
-        <v>3343</v>
+        <v>3463</v>
       </c>
       <c r="E48" s="36">
-        <v>2633</v>
+        <v>2666</v>
       </c>
       <c r="F48" s="36">
-        <v>710</v>
+        <v>797</v>
       </c>
       <c r="G48" s="37">
         <v>17107</v>
@@ -3426,13 +3425,13 @@
         <v>23400</v>
       </c>
       <c r="D49" s="36">
-        <v>24211</v>
+        <v>24802</v>
       </c>
       <c r="E49" s="36">
-        <v>18493</v>
+        <v>18637</v>
       </c>
       <c r="F49" s="36">
-        <v>5718</v>
+        <v>6165</v>
       </c>
       <c r="G49" s="37">
         <v>125307</v>
@@ -3461,13 +3460,13 @@
         <v>3150</v>
       </c>
       <c r="D50" s="36">
-        <v>2933</v>
+        <v>2950</v>
       </c>
       <c r="E50" s="36">
-        <v>1654</v>
+        <v>1661</v>
       </c>
       <c r="F50" s="36">
-        <v>1279</v>
+        <v>1289</v>
       </c>
       <c r="G50" s="37">
         <v>10944</v>
@@ -3496,13 +3495,13 @@
         <v>600</v>
       </c>
       <c r="D51" s="36">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="E51" s="36">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="F51" s="36">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G51" s="37">
         <v>2288</v>
@@ -3531,13 +3530,13 @@
         <v>6400</v>
       </c>
       <c r="D52" s="36">
-        <v>5118</v>
+        <v>5208</v>
       </c>
       <c r="E52" s="36">
-        <v>3677</v>
+        <v>3723</v>
       </c>
       <c r="F52" s="36">
-        <v>1441</v>
+        <v>1485</v>
       </c>
       <c r="G52" s="37">
         <v>32675</v>
@@ -3566,13 +3565,13 @@
         <v>11765</v>
       </c>
       <c r="D53" s="36">
-        <v>6787</v>
+        <v>6969</v>
       </c>
       <c r="E53" s="36">
-        <v>4671</v>
+        <v>4722</v>
       </c>
       <c r="F53" s="36">
-        <v>2116</v>
+        <v>2247</v>
       </c>
       <c r="G53" s="37">
         <v>60428</v>
@@ -3601,13 +3600,13 @@
         <v>0</v>
       </c>
       <c r="D54" s="36">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E54" s="36">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F54" s="36">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G54" s="37">
         <v>1123</v>
@@ -3636,13 +3635,13 @@
         <v>2350</v>
       </c>
       <c r="D55" s="36">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="E55" s="36">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F55" s="36">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G55" s="37">
         <v>3554</v>
@@ -3671,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="36">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="E56" s="36">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F56" s="36">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G56" s="37">
         <v>2694</v>
@@ -3706,13 +3705,13 @@
         <v>2550</v>
       </c>
       <c r="D57" s="36">
-        <v>1537</v>
+        <v>1582</v>
       </c>
       <c r="E57" s="36">
-        <v>1200</v>
+        <v>1229</v>
       </c>
       <c r="F57" s="36">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="G57" s="37">
         <v>4421</v>
@@ -3741,10 +3740,10 @@
         <v>800</v>
       </c>
       <c r="D58" s="36">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E58" s="36">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F58" s="36">
         <v>81</v>
@@ -3776,13 +3775,13 @@
         <v>9290</v>
       </c>
       <c r="D59" s="36">
-        <v>2355</v>
+        <v>2413</v>
       </c>
       <c r="E59" s="36">
-        <v>1648</v>
+        <v>1659</v>
       </c>
       <c r="F59" s="36">
-        <v>707</v>
+        <v>754</v>
       </c>
       <c r="G59" s="37">
         <v>5217</v>
@@ -3811,13 +3810,13 @@
         <v>651235</v>
       </c>
       <c r="D60" s="36">
-        <v>364693</v>
+        <v>374666</v>
       </c>
       <c r="E60" s="36">
-        <v>254417</v>
+        <v>257725</v>
       </c>
       <c r="F60" s="36">
-        <v>110276</v>
+        <v>116941</v>
       </c>
       <c r="G60" s="37">
         <v>2028105</v>
@@ -3846,13 +3845,13 @@
         <v>1300</v>
       </c>
       <c r="D61" s="36">
-        <v>1232</v>
+        <v>1245</v>
       </c>
       <c r="E61" s="36">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="F61" s="36">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="G61" s="37">
         <v>9789</v>
@@ -3881,13 +3880,13 @@
         <v>2500</v>
       </c>
       <c r="D62" s="36">
-        <v>2501</v>
+        <v>2537</v>
       </c>
       <c r="E62" s="36">
-        <v>1756</v>
+        <v>1771</v>
       </c>
       <c r="F62" s="36">
-        <v>745</v>
+        <v>766</v>
       </c>
       <c r="G62" s="37">
         <v>13439</v>
@@ -3916,13 +3915,13 @@
         <v>300</v>
       </c>
       <c r="D63" s="36">
-        <v>603</v>
+        <v>638</v>
       </c>
       <c r="E63" s="36">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F63" s="36">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="G63" s="37">
         <v>4222</v>
@@ -3951,13 +3950,13 @@
         <v>175240</v>
       </c>
       <c r="D64" s="36">
-        <v>95291</v>
+        <v>98575</v>
       </c>
       <c r="E64" s="36">
-        <v>66369</v>
+        <v>68287</v>
       </c>
       <c r="F64" s="36">
-        <v>28922</v>
+        <v>30288</v>
       </c>
       <c r="G64" s="37">
         <v>697330</v>
@@ -3986,13 +3985,13 @@
         <v>1300</v>
       </c>
       <c r="D65" s="36">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="E65" s="36">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="F65" s="36">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="G65" s="37">
         <v>16110</v>
@@ -4021,13 +4020,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="36">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="E66" s="36">
-        <v>252</v>
+        <v>364</v>
       </c>
       <c r="F66" s="36">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G66" s="37">
         <v>1858</v>
@@ -4056,13 +4055,13 @@
         <v>9495</v>
       </c>
       <c r="D67" s="36">
-        <v>3760</v>
+        <v>3895</v>
       </c>
       <c r="E67" s="36">
-        <v>2702</v>
+        <v>2750</v>
       </c>
       <c r="F67" s="36">
-        <v>1058</v>
+        <v>1145</v>
       </c>
       <c r="G67" s="37">
         <v>7539</v>
@@ -4091,10 +4090,10 @@
         <v>400</v>
       </c>
       <c r="D68" s="36">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E68" s="36">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F68" s="36">
         <v>191</v>
@@ -4126,13 +4125,13 @@
         <v>900</v>
       </c>
       <c r="D69" s="36">
-        <v>2434</v>
+        <v>2484</v>
       </c>
       <c r="E69" s="36">
-        <v>1698</v>
+        <v>1715</v>
       </c>
       <c r="F69" s="36">
-        <v>736</v>
+        <v>769</v>
       </c>
       <c r="G69" s="37">
         <v>8600</v>
@@ -4161,13 +4160,13 @@
         <v>1500</v>
       </c>
       <c r="D70" s="36">
-        <v>1925</v>
+        <v>1930</v>
       </c>
       <c r="E70" s="36">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="F70" s="36">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="G70" s="37">
         <v>14970</v>
@@ -4196,13 +4195,13 @@
         <v>52330</v>
       </c>
       <c r="D71" s="36">
-        <v>27807</v>
+        <v>27905</v>
       </c>
       <c r="E71" s="36">
-        <v>20316</v>
+        <v>20357</v>
       </c>
       <c r="F71" s="36">
-        <v>7491</v>
+        <v>7548</v>
       </c>
       <c r="G71" s="37">
         <v>120896</v>
@@ -4231,13 +4230,13 @@
         <v>0</v>
       </c>
       <c r="D72" s="36">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E72" s="36">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F72" s="36">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G72" s="37">
         <v>1555</v>
@@ -4266,13 +4265,13 @@
         <v>226990</v>
       </c>
       <c r="D73" s="36">
-        <v>174541</v>
+        <v>176178</v>
       </c>
       <c r="E73" s="36">
-        <v>114592</v>
+        <v>114668</v>
       </c>
       <c r="F73" s="36">
-        <v>59949</v>
+        <v>61510</v>
       </c>
       <c r="G73" s="37">
         <v>640180</v>
@@ -4301,13 +4300,13 @@
         <v>21780</v>
       </c>
       <c r="D74" s="36">
-        <v>25034</v>
+        <v>25643</v>
       </c>
       <c r="E74" s="36">
-        <v>18740</v>
+        <v>18900</v>
       </c>
       <c r="F74" s="36">
-        <v>6294</v>
+        <v>6743</v>
       </c>
       <c r="G74" s="37">
         <v>141665</v>
@@ -4336,13 +4335,13 @@
         <v>5100</v>
       </c>
       <c r="D75" s="36">
-        <v>4285</v>
+        <v>4312</v>
       </c>
       <c r="E75" s="36">
-        <v>3135</v>
+        <v>3145</v>
       </c>
       <c r="F75" s="36">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="G75" s="37">
         <v>34875</v>
@@ -4371,13 +4370,13 @@
         <v>10265</v>
       </c>
       <c r="D76" s="36">
-        <v>2153</v>
+        <v>2464</v>
       </c>
       <c r="E76" s="36">
-        <v>1782</v>
+        <v>1792</v>
       </c>
       <c r="F76" s="36">
-        <v>371</v>
+        <v>672</v>
       </c>
       <c r="G76" s="37">
         <v>14049</v>
@@ -4406,13 +4405,13 @@
         <v>12865</v>
       </c>
       <c r="D77" s="36">
-        <v>4808</v>
+        <v>5022</v>
       </c>
       <c r="E77" s="36">
-        <v>3335</v>
+        <v>3364</v>
       </c>
       <c r="F77" s="36">
-        <v>1473</v>
+        <v>1658</v>
       </c>
       <c r="G77" s="37">
         <v>28874</v>
@@ -4441,13 +4440,13 @@
         <v>2200</v>
       </c>
       <c r="D78" s="36">
-        <v>3469</v>
+        <v>3545</v>
       </c>
       <c r="E78" s="36">
-        <v>2708</v>
+        <v>2729</v>
       </c>
       <c r="F78" s="36">
-        <v>761</v>
+        <v>816</v>
       </c>
       <c r="G78" s="37">
         <v>20879</v>
@@ -4476,13 +4475,13 @@
         <v>800</v>
       </c>
       <c r="D79" s="36">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="E79" s="36">
         <v>475</v>
       </c>
       <c r="F79" s="36">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G79" s="37">
         <v>3088</v>
@@ -4511,13 +4510,13 @@
         <v>800</v>
       </c>
       <c r="D80" s="36">
-        <v>1179</v>
+        <v>1198</v>
       </c>
       <c r="E80" s="36">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="F80" s="36">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G80" s="37">
         <v>4371</v>
@@ -4546,10 +4545,10 @@
         <v>600</v>
       </c>
       <c r="D81" s="36">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="E81" s="36">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="F81" s="36">
         <v>129</v>
@@ -4581,13 +4580,13 @@
         <v>168000</v>
       </c>
       <c r="D82" s="36">
-        <v>154059</v>
+        <v>156281</v>
       </c>
       <c r="E82" s="36">
-        <v>106764</v>
+        <v>107696</v>
       </c>
       <c r="F82" s="36">
-        <v>47295</v>
+        <v>48585</v>
       </c>
       <c r="G82" s="37">
         <v>616413</v>
@@ -4616,13 +4615,13 @@
         <v>1200</v>
       </c>
       <c r="D83" s="36">
-        <v>1315</v>
+        <v>1335</v>
       </c>
       <c r="E83" s="36">
         <v>925</v>
       </c>
       <c r="F83" s="36">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G83" s="37">
         <v>8554</v>
@@ -4651,13 +4650,13 @@
         <v>1500</v>
       </c>
       <c r="D84" s="36">
-        <v>1471</v>
+        <v>1506</v>
       </c>
       <c r="E84" s="36">
-        <v>1009</v>
+        <v>1034</v>
       </c>
       <c r="F84" s="36">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="G84" s="37">
         <v>15808</v>
@@ -4686,13 +4685,13 @@
         <v>4850</v>
       </c>
       <c r="D85" s="36">
-        <v>2840</v>
+        <v>2852</v>
       </c>
       <c r="E85" s="36">
-        <v>2027</v>
+        <v>2031</v>
       </c>
       <c r="F85" s="36">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="G85" s="37">
         <v>16121</v>
@@ -4721,13 +4720,13 @@
         <v>1900</v>
       </c>
       <c r="D86" s="36">
-        <v>1762</v>
+        <v>1769</v>
       </c>
       <c r="E86" s="36">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="F86" s="36">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="G86" s="37">
         <v>14548</v>
@@ -4756,13 +4755,13 @@
         <v>82900</v>
       </c>
       <c r="D87" s="36">
-        <v>71939</v>
+        <v>72328</v>
       </c>
       <c r="E87" s="36">
-        <v>45295</v>
+        <v>45509</v>
       </c>
       <c r="F87" s="36">
-        <v>26644</v>
+        <v>26819</v>
       </c>
       <c r="G87" s="37">
         <v>269280</v>
@@ -4791,13 +4790,13 @@
         <v>900</v>
       </c>
       <c r="D88" s="36">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E88" s="36">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F88" s="36">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G88" s="37">
         <v>5325</v>
@@ -4826,13 +4825,13 @@
         <v>11600</v>
       </c>
       <c r="D89" s="36">
-        <v>5562</v>
+        <v>5579</v>
       </c>
       <c r="E89" s="36">
-        <v>4253</v>
+        <v>4262</v>
       </c>
       <c r="F89" s="36">
-        <v>1309</v>
+        <v>1317</v>
       </c>
       <c r="G89" s="37">
         <v>22307</v>
@@ -4861,13 +4860,13 @@
         <v>0</v>
       </c>
       <c r="D90" s="36">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E90" s="36">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F90" s="36">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G90" s="37">
         <v>1099</v>
@@ -4896,13 +4895,13 @@
         <v>500</v>
       </c>
       <c r="D91" s="36">
-        <v>1652</v>
+        <v>1685</v>
       </c>
       <c r="E91" s="36">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="F91" s="36">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="G91" s="37">
         <v>6281</v>
@@ -4931,13 +4930,13 @@
         <v>2200</v>
       </c>
       <c r="D92" s="36">
-        <v>2770</v>
+        <v>2810</v>
       </c>
       <c r="E92" s="36">
-        <v>1859</v>
+        <v>1880</v>
       </c>
       <c r="F92" s="36">
-        <v>911</v>
+        <v>930</v>
       </c>
       <c r="G92" s="37">
         <v>15937</v>
@@ -4966,13 +4965,13 @@
         <v>2100</v>
       </c>
       <c r="D93" s="36">
-        <v>2688</v>
+        <v>2727</v>
       </c>
       <c r="E93" s="36">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="F93" s="36">
-        <v>884</v>
+        <v>915</v>
       </c>
       <c r="G93" s="37">
         <v>16924</v>
@@ -5001,13 +5000,13 @@
         <v>25100</v>
       </c>
       <c r="D94" s="36">
-        <v>16874</v>
+        <v>17132</v>
       </c>
       <c r="E94" s="36">
-        <v>11450</v>
+        <v>11503</v>
       </c>
       <c r="F94" s="36">
-        <v>5424</v>
+        <v>5629</v>
       </c>
       <c r="G94" s="37">
         <v>107521</v>
@@ -5036,13 +5035,13 @@
         <v>36395</v>
       </c>
       <c r="D95" s="36">
-        <v>17945</v>
+        <v>18078</v>
       </c>
       <c r="E95" s="36">
-        <v>13044</v>
+        <v>13061</v>
       </c>
       <c r="F95" s="36">
-        <v>4901</v>
+        <v>5017</v>
       </c>
       <c r="G95" s="37">
         <v>95544</v>
@@ -5071,13 +5070,13 @@
         <v>2100</v>
       </c>
       <c r="D96" s="36">
-        <v>2788</v>
+        <v>2902</v>
       </c>
       <c r="E96" s="36">
-        <v>1955</v>
+        <v>2058</v>
       </c>
       <c r="F96" s="36">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="G96" s="37">
         <v>23245</v>
@@ -5106,13 +5105,13 @@
         <v>21265</v>
       </c>
       <c r="D97" s="36">
-        <v>18830</v>
+        <v>19245</v>
       </c>
       <c r="E97" s="36">
-        <v>13660</v>
+        <v>13825</v>
       </c>
       <c r="F97" s="36">
-        <v>5170</v>
+        <v>5420</v>
       </c>
       <c r="G97" s="37">
         <v>130517</v>
@@ -5141,13 +5140,13 @@
         <v>3500</v>
       </c>
       <c r="D98" s="36">
-        <v>4654</v>
+        <v>4709</v>
       </c>
       <c r="E98" s="36">
-        <v>3172</v>
+        <v>3205</v>
       </c>
       <c r="F98" s="36">
-        <v>1482</v>
+        <v>1504</v>
       </c>
       <c r="G98" s="37">
         <v>25476</v>
@@ -5176,13 +5175,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="36">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="E99" s="36">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F99" s="36">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G99" s="37">
         <v>2406</v>
@@ -5211,13 +5210,13 @@
         <v>2000</v>
       </c>
       <c r="D100" s="36">
-        <v>1604</v>
+        <v>1609</v>
       </c>
       <c r="E100" s="36">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F100" s="36">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="G100" s="37">
         <v>6832</v>
@@ -5246,13 +5245,13 @@
         <v>1100</v>
       </c>
       <c r="D101" s="36">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="E101" s="36">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="F101" s="36">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G101" s="37">
         <v>3987</v>
@@ -5281,10 +5280,10 @@
         <v>1400</v>
       </c>
       <c r="D102" s="36">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="E102" s="36">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F102" s="36">
         <v>434</v>
@@ -5316,13 +5315,13 @@
         <v>6400</v>
       </c>
       <c r="D103" s="36">
-        <v>8478</v>
+        <v>8654</v>
       </c>
       <c r="E103" s="36">
-        <v>6186</v>
+        <v>6234</v>
       </c>
       <c r="F103" s="36">
-        <v>2292</v>
+        <v>2420</v>
       </c>
       <c r="G103" s="37">
         <v>45112</v>
@@ -5351,13 +5350,13 @@
         <v>1051020</v>
       </c>
       <c r="D104" s="36">
-        <v>657153</v>
+        <v>666401</v>
       </c>
       <c r="E104" s="36">
-        <v>443823</v>
+        <v>447861</v>
       </c>
       <c r="F104" s="36">
-        <v>213330</v>
+        <v>218540</v>
       </c>
       <c r="G104" s="37">
         <v>3601939</v>
@@ -5386,13 +5385,13 @@
         <v>5500</v>
       </c>
       <c r="D105" s="36">
-        <v>5398</v>
+        <v>5610</v>
       </c>
       <c r="E105" s="36">
-        <v>3925</v>
+        <v>4113</v>
       </c>
       <c r="F105" s="36">
-        <v>1473</v>
+        <v>1497</v>
       </c>
       <c r="G105" s="37">
         <v>51900</v>
@@ -5421,13 +5420,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="36">
-        <v>1621</v>
+        <v>1716</v>
       </c>
       <c r="E106" s="36">
-        <v>1063</v>
+        <v>1095</v>
       </c>
       <c r="F106" s="36">
-        <v>558</v>
+        <v>621</v>
       </c>
       <c r="G106" s="37">
         <v>4561</v>
@@ -5456,10 +5455,10 @@
         <v>900</v>
       </c>
       <c r="D107" s="36">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="E107" s="36">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="F107" s="36">
         <v>237</v>
@@ -5491,13 +5490,13 @@
         <v>44770</v>
       </c>
       <c r="D108" s="36">
-        <v>29126</v>
+        <v>30219</v>
       </c>
       <c r="E108" s="36">
-        <v>21394</v>
+        <v>22223</v>
       </c>
       <c r="F108" s="36">
-        <v>7732</v>
+        <v>7996</v>
       </c>
       <c r="G108" s="37">
         <v>183380</v>
@@ -5526,13 +5525,13 @@
         <v>1400</v>
       </c>
       <c r="D109" s="36">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="E109" s="36">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F109" s="36">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G109" s="37">
         <v>2827</v>
@@ -5561,13 +5560,13 @@
         <v>6600</v>
       </c>
       <c r="D110" s="36">
-        <v>8636</v>
+        <v>8768</v>
       </c>
       <c r="E110" s="36">
-        <v>6179</v>
+        <v>6266</v>
       </c>
       <c r="F110" s="36">
-        <v>2457</v>
+        <v>2502</v>
       </c>
       <c r="G110" s="37">
         <v>67238</v>
@@ -5596,13 +5595,13 @@
         <v>220340</v>
       </c>
       <c r="D111" s="36">
-        <v>141662</v>
+        <v>143744</v>
       </c>
       <c r="E111" s="36">
-        <v>96432</v>
+        <v>98237</v>
       </c>
       <c r="F111" s="36">
-        <v>45230</v>
+        <v>45507</v>
       </c>
       <c r="G111" s="37">
         <v>620824</v>
@@ -5631,13 +5630,13 @@
         <v>2800</v>
       </c>
       <c r="D112" s="36">
-        <v>4662</v>
+        <v>4733</v>
       </c>
       <c r="E112" s="36">
-        <v>3056</v>
+        <v>3070</v>
       </c>
       <c r="F112" s="36">
-        <v>1606</v>
+        <v>1663</v>
       </c>
       <c r="G112" s="37">
         <v>29198</v>
@@ -5666,13 +5665,13 @@
         <v>1800</v>
       </c>
       <c r="D113" s="36">
-        <v>3976</v>
+        <v>4051</v>
       </c>
       <c r="E113" s="36">
-        <v>2911</v>
+        <v>2962</v>
       </c>
       <c r="F113" s="36">
-        <v>1065</v>
+        <v>1089</v>
       </c>
       <c r="G113" s="37">
         <v>17799</v>
@@ -5701,13 +5700,13 @@
         <v>6800</v>
       </c>
       <c r="D114" s="36">
-        <v>8544</v>
+        <v>8733</v>
       </c>
       <c r="E114" s="36">
-        <v>6663</v>
+        <v>6705</v>
       </c>
       <c r="F114" s="36">
-        <v>1881</v>
+        <v>2028</v>
       </c>
       <c r="G114" s="37">
         <v>50193</v>
@@ -5736,13 +5735,13 @@
         <v>4100</v>
       </c>
       <c r="D115" s="36">
-        <v>3986</v>
+        <v>4024</v>
       </c>
       <c r="E115" s="36">
-        <v>2667</v>
+        <v>2685</v>
       </c>
       <c r="F115" s="36">
-        <v>1319</v>
+        <v>1339</v>
       </c>
       <c r="G115" s="37">
         <v>29175</v>
@@ -5771,13 +5770,13 @@
         <v>2400</v>
       </c>
       <c r="D116" s="36">
-        <v>2245</v>
+        <v>2265</v>
       </c>
       <c r="E116" s="36">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="F116" s="36">
-        <v>875</v>
+        <v>897</v>
       </c>
       <c r="G116" s="37">
         <v>18929</v>
@@ -5806,13 +5805,13 @@
         <v>3900</v>
       </c>
       <c r="D117" s="36">
-        <v>3327</v>
+        <v>3444</v>
       </c>
       <c r="E117" s="36">
-        <v>2160</v>
+        <v>2267</v>
       </c>
       <c r="F117" s="36">
-        <v>1167</v>
+        <v>1177</v>
       </c>
       <c r="G117" s="37">
         <v>29544</v>
@@ -5841,10 +5840,10 @@
         <v>500</v>
       </c>
       <c r="D118" s="36">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="E118" s="36">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F118" s="36">
         <v>206</v>
@@ -5876,13 +5875,13 @@
         <v>9850</v>
       </c>
       <c r="D119" s="36">
-        <v>10380</v>
+        <v>10648</v>
       </c>
       <c r="E119" s="36">
-        <v>6726</v>
+        <v>6846</v>
       </c>
       <c r="F119" s="36">
-        <v>3654</v>
+        <v>3802</v>
       </c>
       <c r="G119" s="37">
         <v>77878</v>
@@ -5911,13 +5910,13 @@
         <v>1300</v>
       </c>
       <c r="D120" s="36">
-        <v>2742</v>
+        <v>2897</v>
       </c>
       <c r="E120" s="36">
-        <v>1934</v>
+        <v>1987</v>
       </c>
       <c r="F120" s="36">
-        <v>808</v>
+        <v>910</v>
       </c>
       <c r="G120" s="37">
         <v>16258</v>
@@ -5946,13 +5945,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="36">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E121" s="36">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F121" s="36">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G121" s="37">
         <v>1234</v>
@@ -5981,13 +5980,13 @@
         <v>1500</v>
       </c>
       <c r="D122" s="36">
-        <v>1172</v>
+        <v>1192</v>
       </c>
       <c r="E122" s="36">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F122" s="36">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="G122" s="37">
         <v>7230</v>
@@ -6016,13 +6015,13 @@
         <v>4650</v>
       </c>
       <c r="D123" s="36">
-        <v>3025</v>
+        <v>3031</v>
       </c>
       <c r="E123" s="36">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="F123" s="36">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="G123" s="37">
         <v>11425</v>
@@ -6051,13 +6050,13 @@
         <v>10400</v>
       </c>
       <c r="D124" s="36">
-        <v>5660</v>
+        <v>5910</v>
       </c>
       <c r="E124" s="36">
-        <v>4497</v>
+        <v>4623</v>
       </c>
       <c r="F124" s="36">
-        <v>1163</v>
+        <v>1287</v>
       </c>
       <c r="G124" s="37">
         <v>28056</v>
@@ -6086,13 +6085,13 @@
         <v>400</v>
       </c>
       <c r="D125" s="36">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="E125" s="36">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="F125" s="36">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G125" s="37">
         <v>2180</v>
@@ -6121,13 +6120,13 @@
         <v>69090</v>
       </c>
       <c r="D126" s="36">
-        <v>29979</v>
+        <v>31033</v>
       </c>
       <c r="E126" s="36">
-        <v>22251</v>
+        <v>22874</v>
       </c>
       <c r="F126" s="36">
-        <v>7728</v>
+        <v>8159</v>
       </c>
       <c r="G126" s="37">
         <v>197382</v>
@@ -6156,13 +6155,13 @@
         <v>500</v>
       </c>
       <c r="D127" s="36">
-        <v>1475</v>
+        <v>1503</v>
       </c>
       <c r="E127" s="36">
-        <v>963</v>
+        <v>978</v>
       </c>
       <c r="F127" s="36">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="G127" s="37">
         <v>3791</v>
@@ -6191,13 +6190,13 @@
         <v>11265</v>
       </c>
       <c r="D128" s="36">
-        <v>10040</v>
+        <v>10209</v>
       </c>
       <c r="E128" s="36">
-        <v>7118</v>
+        <v>7157</v>
       </c>
       <c r="F128" s="36">
-        <v>2922</v>
+        <v>3052</v>
       </c>
       <c r="G128" s="37">
         <v>30579</v>
@@ -6226,13 +6225,13 @@
         <v>17200</v>
       </c>
       <c r="D129" s="36">
-        <v>17676</v>
+        <v>18140</v>
       </c>
       <c r="E129" s="36">
-        <v>11963</v>
+        <v>12139</v>
       </c>
       <c r="F129" s="36">
-        <v>5713</v>
+        <v>6001</v>
       </c>
       <c r="G129" s="37">
         <v>135345</v>
@@ -6261,13 +6260,13 @@
         <v>1100</v>
       </c>
       <c r="D130" s="36">
-        <v>1806</v>
+        <v>1834</v>
       </c>
       <c r="E130" s="36">
-        <v>1362</v>
+        <v>1375</v>
       </c>
       <c r="F130" s="36">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="G130" s="37">
         <v>17011</v>
@@ -6296,13 +6295,13 @@
         <v>3000</v>
       </c>
       <c r="D131" s="36">
-        <v>1924</v>
+        <v>1971</v>
       </c>
       <c r="E131" s="36">
-        <v>1413</v>
+        <v>1432</v>
       </c>
       <c r="F131" s="36">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="G131" s="37">
         <v>12669</v>
@@ -6331,13 +6330,13 @@
         <v>11050</v>
       </c>
       <c r="D132" s="36">
-        <v>15296</v>
+        <v>15824</v>
       </c>
       <c r="E132" s="36">
-        <v>10392</v>
+        <v>10525</v>
       </c>
       <c r="F132" s="36">
-        <v>4904</v>
+        <v>5299</v>
       </c>
       <c r="G132" s="37">
         <v>102341</v>
@@ -6366,13 +6365,13 @@
         <v>3600</v>
       </c>
       <c r="D133" s="36">
-        <v>7888</v>
+        <v>8129</v>
       </c>
       <c r="E133" s="36">
-        <v>5833</v>
+        <v>5926</v>
       </c>
       <c r="F133" s="36">
-        <v>2055</v>
+        <v>2203</v>
       </c>
       <c r="G133" s="37">
         <v>37890</v>
@@ -6401,13 +6400,13 @@
         <v>0</v>
       </c>
       <c r="D134" s="36">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="E134" s="36">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F134" s="36">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="G134" s="37">
         <v>321</v>
@@ -6471,13 +6470,13 @@
         <v>5900</v>
       </c>
       <c r="D136" s="36">
-        <v>6296</v>
+        <v>6364</v>
       </c>
       <c r="E136" s="36">
-        <v>4718</v>
+        <v>4746</v>
       </c>
       <c r="F136" s="36">
-        <v>1578</v>
+        <v>1618</v>
       </c>
       <c r="G136" s="37">
         <v>43793</v>
@@ -6506,13 +6505,13 @@
         <v>900</v>
       </c>
       <c r="D137" s="36">
-        <v>773</v>
+        <v>809</v>
       </c>
       <c r="E137" s="36">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="F137" s="36">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="G137" s="37">
         <v>3651</v>
@@ -6541,13 +6540,13 @@
         <v>0</v>
       </c>
       <c r="D138" s="36">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E138" s="36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F138" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G138" s="37">
         <v>205</v>
@@ -6611,13 +6610,13 @@
         <v>18765</v>
       </c>
       <c r="D140" s="36">
-        <v>8524</v>
+        <v>10404</v>
       </c>
       <c r="E140" s="36">
-        <v>7274</v>
+        <v>7313</v>
       </c>
       <c r="F140" s="36">
-        <v>1250</v>
+        <v>3091</v>
       </c>
       <c r="G140" s="37">
         <v>24188</v>
@@ -6646,13 +6645,13 @@
         <v>800</v>
       </c>
       <c r="D141" s="36">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="E141" s="36">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F141" s="36">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G141" s="37">
         <v>2808</v>
@@ -6681,13 +6680,13 @@
         <v>9765</v>
       </c>
       <c r="D142" s="36">
-        <v>2548</v>
+        <v>2592</v>
       </c>
       <c r="E142" s="36">
-        <v>1755</v>
+        <v>1795</v>
       </c>
       <c r="F142" s="36">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="G142" s="37">
         <v>6212</v>
@@ -6716,13 +6715,13 @@
         <v>9400</v>
       </c>
       <c r="D143" s="36">
-        <v>7702</v>
+        <v>7994</v>
       </c>
       <c r="E143" s="36">
-        <v>5888</v>
+        <v>5934</v>
       </c>
       <c r="F143" s="36">
-        <v>1814</v>
+        <v>2060</v>
       </c>
       <c r="G143" s="37">
         <v>39402</v>
@@ -6751,13 +6750,13 @@
         <v>900</v>
       </c>
       <c r="D144" s="36">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="E144" s="36">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="F144" s="36">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="G144" s="37">
         <v>9740</v>
@@ -6786,13 +6785,13 @@
         <v>1400</v>
       </c>
       <c r="D145" s="36">
-        <v>2048</v>
+        <v>2103</v>
       </c>
       <c r="E145" s="36">
-        <v>1571</v>
+        <v>1586</v>
       </c>
       <c r="F145" s="36">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="G145" s="37">
         <v>17366</v>
@@ -6821,13 +6820,13 @@
         <v>3200</v>
       </c>
       <c r="D146" s="36">
-        <v>3075</v>
+        <v>3105</v>
       </c>
       <c r="E146" s="36">
-        <v>1925</v>
+        <v>1952</v>
       </c>
       <c r="F146" s="36">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="G146" s="37">
         <v>16004</v>
@@ -6856,13 +6855,13 @@
         <v>1100</v>
       </c>
       <c r="D147" s="36">
-        <v>1633</v>
+        <v>1678</v>
       </c>
       <c r="E147" s="36">
-        <v>1142</v>
+        <v>1166</v>
       </c>
       <c r="F147" s="36">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="G147" s="37">
         <v>13993</v>
@@ -6891,13 +6890,13 @@
         <v>1200</v>
       </c>
       <c r="D148" s="36">
-        <v>1268</v>
+        <v>1334</v>
       </c>
       <c r="E148" s="36">
-        <v>837</v>
+        <v>887</v>
       </c>
       <c r="F148" s="36">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="G148" s="37">
         <v>13946</v>
@@ -6926,13 +6925,13 @@
         <v>13565</v>
       </c>
       <c r="D149" s="36">
-        <v>6383</v>
+        <v>6628</v>
       </c>
       <c r="E149" s="36">
-        <v>4193</v>
+        <v>4254</v>
       </c>
       <c r="F149" s="36">
-        <v>2190</v>
+        <v>2374</v>
       </c>
       <c r="G149" s="37">
         <v>66868</v>
@@ -6961,13 +6960,13 @@
         <v>3000</v>
       </c>
       <c r="D150" s="36">
-        <v>2126</v>
+        <v>2213</v>
       </c>
       <c r="E150" s="36">
-        <v>1421</v>
+        <v>1481</v>
       </c>
       <c r="F150" s="36">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="G150" s="37">
         <v>18871</v>
@@ -6996,13 +6995,13 @@
         <v>400</v>
       </c>
       <c r="D151" s="36">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E151" s="36">
         <v>425</v>
       </c>
       <c r="F151" s="36">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G151" s="37">
         <v>2520</v>
@@ -7031,13 +7030,13 @@
         <v>600</v>
       </c>
       <c r="D152" s="36">
-        <v>1645</v>
+        <v>1739</v>
       </c>
       <c r="E152" s="36">
-        <v>1198</v>
+        <v>1214</v>
       </c>
       <c r="F152" s="36">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="G152" s="37">
         <v>10055</v>
@@ -7066,13 +7065,13 @@
         <v>1800</v>
       </c>
       <c r="D153" s="36">
-        <v>3063</v>
+        <v>3091</v>
       </c>
       <c r="E153" s="36">
-        <v>2521</v>
+        <v>2524</v>
       </c>
       <c r="F153" s="36">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="G153" s="37">
         <v>18908</v>
@@ -7136,13 +7135,13 @@
         <v>116700</v>
       </c>
       <c r="D155" s="36">
-        <v>82640</v>
+        <v>83879</v>
       </c>
       <c r="E155" s="36">
-        <v>56072</v>
+        <v>56653</v>
       </c>
       <c r="F155" s="36">
-        <v>26568</v>
+        <v>27226</v>
       </c>
       <c r="G155" s="37">
         <v>244992</v>
@@ -7171,13 +7170,13 @@
         <v>500</v>
       </c>
       <c r="D156" s="36">
-        <v>1242</v>
+        <v>1257</v>
       </c>
       <c r="E156" s="36">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="F156" s="36">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="G156" s="37">
         <v>4496</v>
@@ -7206,13 +7205,13 @@
         <v>1200</v>
       </c>
       <c r="D157" s="36">
-        <v>1014</v>
+        <v>1039</v>
       </c>
       <c r="E157" s="36">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="F157" s="36">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G157" s="37">
         <v>11595</v>
@@ -7241,13 +7240,13 @@
         <v>100</v>
       </c>
       <c r="D158" s="36">
-        <v>778</v>
+        <v>803</v>
       </c>
       <c r="E158" s="36">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="F158" s="36">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G158" s="37">
         <v>8277</v>
@@ -7276,13 +7275,13 @@
         <v>900</v>
       </c>
       <c r="D159" s="36">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E159" s="36">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F159" s="36">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G159" s="37">
         <v>4136</v>
@@ -7311,13 +7310,13 @@
         <v>600</v>
       </c>
       <c r="D160" s="36">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="E160" s="36">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="F160" s="36">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G160" s="37">
         <v>3521</v>
@@ -7346,13 +7345,13 @@
         <v>3700</v>
       </c>
       <c r="D161" s="36">
-        <v>3052</v>
+        <v>3073</v>
       </c>
       <c r="E161" s="36">
-        <v>2064</v>
+        <v>2072</v>
       </c>
       <c r="F161" s="36">
-        <v>988</v>
+        <v>1001</v>
       </c>
       <c r="G161" s="37">
         <v>28247</v>
@@ -7381,13 +7380,13 @@
         <v>13400</v>
       </c>
       <c r="D162" s="36">
-        <v>5515</v>
+        <v>5821</v>
       </c>
       <c r="E162" s="36">
-        <v>4430</v>
+        <v>4678</v>
       </c>
       <c r="F162" s="36">
-        <v>1085</v>
+        <v>1143</v>
       </c>
       <c r="G162" s="37">
         <v>42606</v>
@@ -7416,13 +7415,13 @@
         <v>1600</v>
       </c>
       <c r="D163" s="36">
-        <v>974</v>
+        <v>1081</v>
       </c>
       <c r="E163" s="36">
-        <v>801</v>
+        <v>834</v>
       </c>
       <c r="F163" s="36">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="G163" s="37">
         <v>6435</v>
@@ -7451,13 +7450,13 @@
         <v>51830</v>
       </c>
       <c r="D164" s="36">
-        <v>35746</v>
+        <v>36031</v>
       </c>
       <c r="E164" s="36">
-        <v>25315</v>
+        <v>25367</v>
       </c>
       <c r="F164" s="36">
-        <v>10431</v>
+        <v>10664</v>
       </c>
       <c r="G164" s="37">
         <v>200781</v>
@@ -7486,13 +7485,13 @@
         <v>300</v>
       </c>
       <c r="D165" s="36">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E165" s="36">
         <v>94</v>
       </c>
       <c r="F165" s="36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G165" s="37">
         <v>616</v>
@@ -7521,13 +7520,13 @@
         <v>3400</v>
       </c>
       <c r="D166" s="36">
-        <v>6665</v>
+        <v>6801</v>
       </c>
       <c r="E166" s="36">
-        <v>4790</v>
+        <v>4841</v>
       </c>
       <c r="F166" s="36">
-        <v>1875</v>
+        <v>1960</v>
       </c>
       <c r="G166" s="37">
         <v>41263</v>
@@ -7556,13 +7555,13 @@
         <v>400</v>
       </c>
       <c r="D167" s="36">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E167" s="36">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F167" s="36">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G167" s="37">
         <v>1790</v>
@@ -7591,13 +7590,13 @@
         <v>54425</v>
       </c>
       <c r="D168" s="36">
-        <v>32494</v>
+        <v>32767</v>
       </c>
       <c r="E168" s="36">
-        <v>24159</v>
+        <v>24202</v>
       </c>
       <c r="F168" s="36">
-        <v>8335</v>
+        <v>8565</v>
       </c>
       <c r="G168" s="37">
         <v>131025</v>
@@ -7626,13 +7625,13 @@
         <v>3500</v>
       </c>
       <c r="D169" s="36">
-        <v>3340</v>
+        <v>3364</v>
       </c>
       <c r="E169" s="36">
-        <v>2165</v>
+        <v>2175</v>
       </c>
       <c r="F169" s="36">
-        <v>1175</v>
+        <v>1189</v>
       </c>
       <c r="G169" s="37">
         <v>19689</v>
@@ -7661,13 +7660,13 @@
         <v>500</v>
       </c>
       <c r="D170" s="36">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E170" s="36">
         <v>634</v>
       </c>
       <c r="F170" s="36">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G170" s="37">
         <v>4006</v>
@@ -7696,13 +7695,13 @@
         <v>1300</v>
       </c>
       <c r="D171" s="36">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="E171" s="36">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F171" s="36">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G171" s="37">
         <v>6958</v>
@@ -7731,13 +7730,13 @@
         <v>2650</v>
       </c>
       <c r="D172" s="36">
-        <v>3325</v>
+        <v>3453</v>
       </c>
       <c r="E172" s="36">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="F172" s="36">
-        <v>993</v>
+        <v>1117</v>
       </c>
       <c r="G172" s="37">
         <v>15872</v>
@@ -7766,13 +7765,13 @@
         <v>117800</v>
       </c>
       <c r="D173" s="36">
-        <v>76650</v>
+        <v>77883</v>
       </c>
       <c r="E173" s="36">
-        <v>52115</v>
+        <v>52773</v>
       </c>
       <c r="F173" s="36">
-        <v>24535</v>
+        <v>25110</v>
       </c>
       <c r="G173" s="37">
         <v>467232</v>
@@ -7801,13 +7800,13 @@
         <v>1800</v>
       </c>
       <c r="D174" s="36">
-        <v>5056</v>
+        <v>5102</v>
       </c>
       <c r="E174" s="36">
-        <v>4036</v>
+        <v>4044</v>
       </c>
       <c r="F174" s="36">
-        <v>1020</v>
+        <v>1058</v>
       </c>
       <c r="G174" s="37">
         <v>14986</v>
@@ -7836,13 +7835,13 @@
         <v>800</v>
       </c>
       <c r="D175" s="36">
-        <v>1051</v>
+        <v>1060</v>
       </c>
       <c r="E175" s="36">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="F175" s="36">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G175" s="37">
         <v>9830</v>
@@ -7906,13 +7905,13 @@
         <v>11500</v>
       </c>
       <c r="D177" s="36">
-        <v>10235</v>
+        <v>10263</v>
       </c>
       <c r="E177" s="36">
-        <v>6520</v>
+        <v>6528</v>
       </c>
       <c r="F177" s="36">
-        <v>3715</v>
+        <v>3735</v>
       </c>
       <c r="G177" s="37">
         <v>51773</v>
@@ -7941,13 +7940,13 @@
         <v>12300</v>
       </c>
       <c r="D178" s="36">
-        <v>8057</v>
+        <v>8127</v>
       </c>
       <c r="E178" s="36">
-        <v>6733</v>
+        <v>6764</v>
       </c>
       <c r="F178" s="36">
-        <v>1324</v>
+        <v>1363</v>
       </c>
       <c r="G178" s="37">
         <v>38360</v>
@@ -7976,13 +7975,13 @@
         <v>1200</v>
       </c>
       <c r="D179" s="36">
-        <v>1611</v>
+        <v>1661</v>
       </c>
       <c r="E179" s="36">
-        <v>1286</v>
+        <v>1296</v>
       </c>
       <c r="F179" s="36">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="G179" s="37">
         <v>11298</v>
@@ -8011,13 +8010,13 @@
         <v>3500</v>
       </c>
       <c r="D180" s="36">
-        <v>2524</v>
+        <v>2547</v>
       </c>
       <c r="E180" s="36">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="F180" s="36">
-        <v>788</v>
+        <v>813</v>
       </c>
       <c r="G180" s="37">
         <v>11321</v>
@@ -8046,13 +8045,13 @@
         <v>98515</v>
       </c>
       <c r="D181" s="36">
-        <v>65012</v>
+        <v>66619</v>
       </c>
       <c r="E181" s="36">
-        <v>42140</v>
+        <v>43111</v>
       </c>
       <c r="F181" s="36">
-        <v>22872</v>
+        <v>23508</v>
       </c>
       <c r="G181" s="37">
         <v>284366</v>
@@ -8081,13 +8080,13 @@
         <v>1700</v>
       </c>
       <c r="D182" s="36">
-        <v>1327</v>
+        <v>1338</v>
       </c>
       <c r="E182" s="36">
         <v>824</v>
       </c>
       <c r="F182" s="36">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="G182" s="37">
         <v>7106</v>
@@ -8116,13 +8115,13 @@
         <v>600</v>
       </c>
       <c r="D183" s="36">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E183" s="36">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F183" s="36">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G183" s="37">
         <v>1728</v>
@@ -8151,13 +8150,13 @@
         <v>2000</v>
       </c>
       <c r="D184" s="36">
-        <v>7853</v>
+        <v>8019</v>
       </c>
       <c r="E184" s="36">
-        <v>6277</v>
+        <v>6399</v>
       </c>
       <c r="F184" s="36">
-        <v>1576</v>
+        <v>1620</v>
       </c>
       <c r="G184" s="37">
         <v>65087</v>
@@ -8186,13 +8185,13 @@
         <v>2400</v>
       </c>
       <c r="D185" s="36">
-        <v>2302</v>
+        <v>2342</v>
       </c>
       <c r="E185" s="36">
-        <v>1636</v>
+        <v>1655</v>
       </c>
       <c r="F185" s="36">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="G185" s="37">
         <v>23207</v>
@@ -8221,13 +8220,13 @@
         <v>1900</v>
       </c>
       <c r="D186" s="36">
-        <v>1899</v>
+        <v>1910</v>
       </c>
       <c r="E186" s="36">
-        <v>1331</v>
+        <v>1340</v>
       </c>
       <c r="F186" s="36">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G186" s="37">
         <v>18462</v>
@@ -8256,13 +8255,13 @@
         <v>25100</v>
       </c>
       <c r="D187" s="36">
-        <v>20373</v>
+        <v>21275</v>
       </c>
       <c r="E187" s="36">
-        <v>13805</v>
+        <v>14093</v>
       </c>
       <c r="F187" s="36">
-        <v>6568</v>
+        <v>7182</v>
       </c>
       <c r="G187" s="37">
         <v>111686</v>
@@ -8291,13 +8290,13 @@
         <v>1100</v>
       </c>
       <c r="D188" s="36">
-        <v>2071</v>
+        <v>2081</v>
       </c>
       <c r="E188" s="36">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="F188" s="36">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="G188" s="37">
         <v>7222</v>
@@ -8326,13 +8325,13 @@
         <v>2600</v>
       </c>
       <c r="D189" s="36">
-        <v>3249</v>
+        <v>3266</v>
       </c>
       <c r="E189" s="36">
-        <v>2640</v>
+        <v>2656</v>
       </c>
       <c r="F189" s="36">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G189" s="37">
         <v>12317</v>
@@ -8361,13 +8360,13 @@
         <v>4400</v>
       </c>
       <c r="D190" s="36">
-        <v>6719</v>
+        <v>6847</v>
       </c>
       <c r="E190" s="36">
-        <v>4966</v>
+        <v>4996</v>
       </c>
       <c r="F190" s="36">
-        <v>1753</v>
+        <v>1851</v>
       </c>
       <c r="G190" s="37">
         <v>42276</v>
@@ -8396,13 +8395,13 @@
         <v>100595</v>
       </c>
       <c r="D191" s="36">
-        <v>27396</v>
+        <v>27800</v>
       </c>
       <c r="E191" s="36">
-        <v>17520</v>
+        <v>17676</v>
       </c>
       <c r="F191" s="36">
-        <v>9876</v>
+        <v>10124</v>
       </c>
       <c r="G191" s="37">
         <v>88673</v>
@@ -8431,10 +8430,10 @@
         <v>2000</v>
       </c>
       <c r="D192" s="36">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="E192" s="36">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="F192" s="36">
         <v>222</v>
@@ -8466,13 +8465,13 @@
         <v>700</v>
       </c>
       <c r="D193" s="36">
-        <v>1102</v>
+        <v>1122</v>
       </c>
       <c r="E193" s="36">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="F193" s="36">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="G193" s="37">
         <v>10277</v>
@@ -8501,13 +8500,13 @@
         <v>6900</v>
       </c>
       <c r="D194" s="36">
-        <v>41688</v>
+        <v>42095</v>
       </c>
       <c r="E194" s="36">
-        <v>26051</v>
+        <v>26181</v>
       </c>
       <c r="F194" s="36">
-        <v>15637</v>
+        <v>15914</v>
       </c>
       <c r="G194" s="37">
         <v>108431</v>
@@ -8536,13 +8535,13 @@
         <v>400</v>
       </c>
       <c r="D195" s="36">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E195" s="36">
         <v>379</v>
       </c>
       <c r="F195" s="36">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G195" s="37">
         <v>2841</v>
@@ -8571,13 +8570,13 @@
         <v>400</v>
       </c>
       <c r="D196" s="36">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E196" s="36">
         <v>579</v>
       </c>
       <c r="F196" s="36">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G196" s="37">
         <v>2943</v>
@@ -8606,13 +8605,13 @@
         <v>1300</v>
       </c>
       <c r="D197" s="36">
-        <v>1789</v>
+        <v>1837</v>
       </c>
       <c r="E197" s="36">
-        <v>1335</v>
+        <v>1360</v>
       </c>
       <c r="F197" s="36">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="G197" s="37">
         <v>9965</v>
@@ -8641,10 +8640,10 @@
         <v>10065</v>
       </c>
       <c r="D198" s="36">
-        <v>4511</v>
+        <v>4509</v>
       </c>
       <c r="E198" s="36">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="F198" s="36">
         <v>1387</v>
@@ -8676,13 +8675,13 @@
         <v>900</v>
       </c>
       <c r="D199" s="36">
-        <v>1385</v>
+        <v>1432</v>
       </c>
       <c r="E199" s="36">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="F199" s="36">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="G199" s="37">
         <v>5583</v>
@@ -8711,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="D200" s="36">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E200" s="36">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F200" s="36">
         <v>48</v>
@@ -8746,13 +8745,13 @@
         <v>1300</v>
       </c>
       <c r="D201" s="36">
-        <v>1971</v>
+        <v>2065</v>
       </c>
       <c r="E201" s="36">
-        <v>1448</v>
+        <v>1491</v>
       </c>
       <c r="F201" s="36">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="G201" s="37">
         <v>13474</v>
@@ -8781,13 +8780,13 @@
         <v>12345</v>
       </c>
       <c r="D202" s="36">
-        <v>16575</v>
+        <v>17143</v>
       </c>
       <c r="E202" s="36">
-        <v>11949</v>
+        <v>12112</v>
       </c>
       <c r="F202" s="36">
-        <v>4626</v>
+        <v>5031</v>
       </c>
       <c r="G202" s="37">
         <v>80325</v>
@@ -8816,13 +8815,13 @@
         <v>2100</v>
       </c>
       <c r="D203" s="36">
-        <v>1838</v>
+        <v>1854</v>
       </c>
       <c r="E203" s="36">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="F203" s="36">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="G203" s="37">
         <v>8184</v>
@@ -8851,13 +8850,13 @@
         <v>2300</v>
       </c>
       <c r="D204" s="36">
-        <v>4784</v>
+        <v>4817</v>
       </c>
       <c r="E204" s="36">
-        <v>3491</v>
+        <v>3513</v>
       </c>
       <c r="F204" s="36">
-        <v>1293</v>
+        <v>1304</v>
       </c>
       <c r="G204" s="37">
         <v>43777</v>
@@ -8886,13 +8885,13 @@
         <v>1800</v>
       </c>
       <c r="D205" s="36">
-        <v>1956</v>
+        <v>2025</v>
       </c>
       <c r="E205" s="36">
-        <v>1312</v>
+        <v>1345</v>
       </c>
       <c r="F205" s="36">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="G205" s="37">
         <v>8871</v>
@@ -8921,13 +8920,13 @@
         <v>1400</v>
       </c>
       <c r="D206" s="36">
-        <v>1268</v>
+        <v>1316</v>
       </c>
       <c r="E206" s="36">
-        <v>880</v>
+        <v>921</v>
       </c>
       <c r="F206" s="36">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="G206" s="37">
         <v>6811</v>
@@ -8956,13 +8955,13 @@
         <v>1900</v>
       </c>
       <c r="D207" s="36">
-        <v>2685</v>
+        <v>2741</v>
       </c>
       <c r="E207" s="36">
-        <v>1895</v>
+        <v>1905</v>
       </c>
       <c r="F207" s="36">
-        <v>790</v>
+        <v>836</v>
       </c>
       <c r="G207" s="37">
         <v>23444</v>
@@ -8991,13 +8990,13 @@
         <v>5000</v>
       </c>
       <c r="D208" s="36">
-        <v>9232</v>
+        <v>9547</v>
       </c>
       <c r="E208" s="36">
-        <v>6689</v>
+        <v>6822</v>
       </c>
       <c r="F208" s="36">
-        <v>2543</v>
+        <v>2725</v>
       </c>
       <c r="G208" s="37">
         <v>51116</v>
@@ -9026,13 +9025,13 @@
         <v>400</v>
       </c>
       <c r="D209" s="36">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E209" s="36">
         <v>230</v>
       </c>
       <c r="F209" s="36">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G209" s="37">
         <v>5000</v>
@@ -9061,13 +9060,13 @@
         <v>600</v>
       </c>
       <c r="D210" s="36">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="E210" s="36">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F210" s="36">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G210" s="37">
         <v>2218</v>
@@ -9096,13 +9095,13 @@
         <v>5295</v>
       </c>
       <c r="D211" s="36">
-        <v>3583</v>
+        <v>3598</v>
       </c>
       <c r="E211" s="36">
-        <v>2294</v>
+        <v>2306</v>
       </c>
       <c r="F211" s="36">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="G211" s="37">
         <v>13000</v>
@@ -9131,13 +9130,13 @@
         <v>500</v>
       </c>
       <c r="D212" s="36">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E212" s="36">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F212" s="36">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G212" s="37">
         <v>2612</v>
@@ -9166,13 +9165,13 @@
         <v>1900</v>
       </c>
       <c r="D213" s="36">
-        <v>1775</v>
+        <v>1820</v>
       </c>
       <c r="E213" s="36">
-        <v>1132</v>
+        <v>1174</v>
       </c>
       <c r="F213" s="36">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="G213" s="37">
         <v>19449</v>
@@ -9201,13 +9200,13 @@
         <v>700</v>
       </c>
       <c r="D214" s="36">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="E214" s="36">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F214" s="36">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G214" s="37">
         <v>2294</v>
@@ -9236,13 +9235,13 @@
         <v>88900</v>
       </c>
       <c r="D215" s="36">
-        <v>39952</v>
+        <v>40177</v>
       </c>
       <c r="E215" s="36">
-        <v>26488</v>
+        <v>26658</v>
       </c>
       <c r="F215" s="36">
-        <v>13464</v>
+        <v>13519</v>
       </c>
       <c r="G215" s="37">
         <v>182283</v>
@@ -9271,13 +9270,13 @@
         <v>1200</v>
       </c>
       <c r="D216" s="36">
-        <v>1316</v>
+        <v>1344</v>
       </c>
       <c r="E216" s="36">
-        <v>1019</v>
+        <v>1034</v>
       </c>
       <c r="F216" s="36">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="G216" s="37">
         <v>7386</v>
@@ -9306,13 +9305,13 @@
         <v>10300</v>
       </c>
       <c r="D217" s="36">
-        <v>8381</v>
+        <v>8479</v>
       </c>
       <c r="E217" s="36">
-        <v>6121</v>
+        <v>6193</v>
       </c>
       <c r="F217" s="36">
-        <v>2260</v>
+        <v>2286</v>
       </c>
       <c r="G217" s="37">
         <v>45765</v>
@@ -9341,13 +9340,13 @@
         <v>1100</v>
       </c>
       <c r="D218" s="36">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E218" s="36">
         <v>665</v>
       </c>
       <c r="F218" s="36">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G218" s="37">
         <v>7542</v>
@@ -9376,13 +9375,13 @@
         <v>100</v>
       </c>
       <c r="D219" s="36">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E219" s="36">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F219" s="36">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G219" s="37">
         <v>975</v>
@@ -9411,13 +9410,13 @@
         <v>600</v>
       </c>
       <c r="D220" s="36">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="E220" s="36">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F220" s="36">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G220" s="37">
         <v>1095</v>
@@ -9446,10 +9445,10 @@
         <v>600</v>
       </c>
       <c r="D221" s="36">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="E221" s="36">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F221" s="36">
         <v>104</v>
@@ -9481,13 +9480,13 @@
         <v>600</v>
       </c>
       <c r="D222" s="36">
-        <v>1315</v>
+        <v>1327</v>
       </c>
       <c r="E222" s="36">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="F222" s="36">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="G222" s="37">
         <v>5764</v>
@@ -9516,13 +9515,13 @@
         <v>508460</v>
       </c>
       <c r="D223" s="36">
-        <v>296518</v>
+        <v>307900</v>
       </c>
       <c r="E223" s="36">
-        <v>194568</v>
+        <v>197531</v>
       </c>
       <c r="F223" s="36">
-        <v>101950</v>
+        <v>110369</v>
       </c>
       <c r="G223" s="37">
         <v>1617160</v>
@@ -9551,13 +9550,13 @@
         <v>37745</v>
       </c>
       <c r="D224" s="36">
-        <v>24370</v>
+        <v>24392</v>
       </c>
       <c r="E224" s="36">
-        <v>17971</v>
+        <v>17980</v>
       </c>
       <c r="F224" s="36">
-        <v>6399</v>
+        <v>6412</v>
       </c>
       <c r="G224" s="37">
         <v>107257</v>
@@ -9586,10 +9585,10 @@
         <v>0</v>
       </c>
       <c r="D225" s="36">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E225" s="36">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F225" s="36">
         <v>14</v>
@@ -9621,13 +9620,13 @@
         <v>3850</v>
       </c>
       <c r="D226" s="36">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="E226" s="36">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="F226" s="36">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G226" s="37">
         <v>9307</v>
@@ -9691,13 +9690,13 @@
         <v>5700</v>
       </c>
       <c r="D228" s="36">
-        <v>3000</v>
+        <v>3024</v>
       </c>
       <c r="E228" s="36">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="F228" s="36">
-        <v>995</v>
+        <v>1004</v>
       </c>
       <c r="G228" s="37">
         <v>24323</v>
@@ -9726,13 +9725,13 @@
         <v>34550</v>
       </c>
       <c r="D229" s="36">
-        <v>24327</v>
+        <v>24990</v>
       </c>
       <c r="E229" s="36">
-        <v>16228</v>
+        <v>16600</v>
       </c>
       <c r="F229" s="36">
-        <v>8099</v>
+        <v>8390</v>
       </c>
       <c r="G229" s="37">
         <v>93752</v>
@@ -9761,13 +9760,13 @@
         <v>289990</v>
       </c>
       <c r="D230" s="36">
-        <v>162510</v>
+        <v>166341</v>
       </c>
       <c r="E230" s="36">
-        <v>112146</v>
+        <v>114112</v>
       </c>
       <c r="F230" s="36">
-        <v>50364</v>
+        <v>52229</v>
       </c>
       <c r="G230" s="37">
         <v>1032386</v>
@@ -9796,13 +9795,13 @@
         <v>3050</v>
       </c>
       <c r="D231" s="36">
-        <v>2280</v>
+        <v>2294</v>
       </c>
       <c r="E231" s="36">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="F231" s="36">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="G231" s="37">
         <v>12104</v>
@@ -9831,13 +9830,13 @@
         <v>3400</v>
       </c>
       <c r="D232" s="36">
-        <v>3231</v>
+        <v>3263</v>
       </c>
       <c r="E232" s="36">
-        <v>2278</v>
+        <v>2302</v>
       </c>
       <c r="F232" s="36">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="G232" s="37">
         <v>17963</v>
@@ -9866,13 +9865,13 @@
         <v>1700</v>
       </c>
       <c r="D233" s="36">
-        <v>3492</v>
+        <v>3533</v>
       </c>
       <c r="E233" s="36">
-        <v>2515</v>
+        <v>2536</v>
       </c>
       <c r="F233" s="36">
-        <v>977</v>
+        <v>997</v>
       </c>
       <c r="G233" s="37">
         <v>33011</v>
@@ -9936,13 +9935,13 @@
         <v>11665</v>
       </c>
       <c r="D235" s="36">
-        <v>5869</v>
+        <v>5878</v>
       </c>
       <c r="E235" s="36">
-        <v>4096</v>
+        <v>4101</v>
       </c>
       <c r="F235" s="36">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="G235" s="37">
         <v>20379</v>
@@ -9971,13 +9970,13 @@
         <v>7700</v>
       </c>
       <c r="D236" s="36">
-        <v>5835</v>
+        <v>5860</v>
       </c>
       <c r="E236" s="36">
-        <v>4573</v>
+        <v>4586</v>
       </c>
       <c r="F236" s="36">
-        <v>1262</v>
+        <v>1274</v>
       </c>
       <c r="G236" s="37">
         <v>36546</v>
@@ -10006,13 +10005,13 @@
         <v>3400</v>
       </c>
       <c r="D237" s="36">
-        <v>5842</v>
+        <v>5911</v>
       </c>
       <c r="E237" s="36">
-        <v>4029</v>
+        <v>4040</v>
       </c>
       <c r="F237" s="36">
-        <v>1813</v>
+        <v>1871</v>
       </c>
       <c r="G237" s="37">
         <v>45216</v>
@@ -10041,13 +10040,13 @@
         <v>21350</v>
       </c>
       <c r="D238" s="36">
-        <v>14997</v>
+        <v>15112</v>
       </c>
       <c r="E238" s="36">
-        <v>10698</v>
+        <v>10727</v>
       </c>
       <c r="F238" s="36">
-        <v>4299</v>
+        <v>4385</v>
       </c>
       <c r="G238" s="37">
         <v>71388</v>
@@ -10076,13 +10075,13 @@
         <v>7100</v>
       </c>
       <c r="D239" s="36">
-        <v>5857</v>
+        <v>5992</v>
       </c>
       <c r="E239" s="36">
-        <v>4151</v>
+        <v>4212</v>
       </c>
       <c r="F239" s="36">
-        <v>1706</v>
+        <v>1780</v>
       </c>
       <c r="G239" s="37">
         <v>63471</v>
@@ -10111,13 +10110,13 @@
         <v>3600</v>
       </c>
       <c r="D240" s="36">
-        <v>4498</v>
+        <v>4568</v>
       </c>
       <c r="E240" s="36">
-        <v>3280</v>
+        <v>3323</v>
       </c>
       <c r="F240" s="36">
-        <v>1218</v>
+        <v>1245</v>
       </c>
       <c r="G240" s="37">
         <v>43350</v>
@@ -10181,13 +10180,13 @@
         <v>24000</v>
       </c>
       <c r="D242" s="36">
-        <v>6487</v>
+        <v>6537</v>
       </c>
       <c r="E242" s="36">
-        <v>5201</v>
+        <v>5214</v>
       </c>
       <c r="F242" s="36">
-        <v>1286</v>
+        <v>1323</v>
       </c>
       <c r="G242" s="37">
         <v>29086</v>
@@ -10216,13 +10215,13 @@
         <v>58600</v>
       </c>
       <c r="D243" s="36">
-        <v>45378</v>
+        <v>47512</v>
       </c>
       <c r="E243" s="36">
-        <v>32208</v>
+        <v>33381</v>
       </c>
       <c r="F243" s="36">
-        <v>13170</v>
+        <v>14131</v>
       </c>
       <c r="G243" s="37">
         <v>196916</v>
@@ -10251,13 +10250,13 @@
         <v>4200</v>
       </c>
       <c r="D244" s="36">
-        <v>4279</v>
+        <v>4393</v>
       </c>
       <c r="E244" s="36">
-        <v>2898</v>
+        <v>2918</v>
       </c>
       <c r="F244" s="36">
-        <v>1381</v>
+        <v>1475</v>
       </c>
       <c r="G244" s="37">
         <v>32110</v>
@@ -10286,13 +10285,13 @@
         <v>1200</v>
       </c>
       <c r="D245" s="36">
-        <v>1100</v>
+        <v>1115</v>
       </c>
       <c r="E245" s="36">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F245" s="36">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="G245" s="37">
         <v>3915</v>
@@ -10321,13 +10320,13 @@
         <v>34590</v>
       </c>
       <c r="D246" s="36">
-        <v>26043</v>
+        <v>26554</v>
       </c>
       <c r="E246" s="36">
-        <v>17308</v>
+        <v>17394</v>
       </c>
       <c r="F246" s="36">
-        <v>8735</v>
+        <v>9160</v>
       </c>
       <c r="G246" s="37">
         <v>105631</v>
@@ -10356,13 +10355,13 @@
         <v>6300</v>
       </c>
       <c r="D247" s="36">
-        <v>3667</v>
+        <v>3680</v>
       </c>
       <c r="E247" s="36">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="F247" s="36">
-        <v>1180</v>
+        <v>1191</v>
       </c>
       <c r="G247" s="37">
         <v>10361</v>
@@ -10391,13 +10390,13 @@
         <v>1100</v>
       </c>
       <c r="D248" s="36">
-        <v>2750</v>
+        <v>2776</v>
       </c>
       <c r="E248" s="36">
-        <v>2050</v>
+        <v>2058</v>
       </c>
       <c r="F248" s="36">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="G248" s="37">
         <v>16897</v>
@@ -10426,13 +10425,13 @@
         <v>101750</v>
       </c>
       <c r="D249" s="36">
-        <v>68966</v>
+        <v>70833</v>
       </c>
       <c r="E249" s="36">
-        <v>48525</v>
+        <v>49479</v>
       </c>
       <c r="F249" s="36">
-        <v>20441</v>
+        <v>21354</v>
       </c>
       <c r="G249" s="37">
         <v>458433</v>
@@ -10461,13 +10460,13 @@
         <v>5100</v>
       </c>
       <c r="D250" s="36">
-        <v>6822</v>
+        <v>6973</v>
       </c>
       <c r="E250" s="36">
-        <v>4376</v>
+        <v>4429</v>
       </c>
       <c r="F250" s="36">
-        <v>2446</v>
+        <v>2544</v>
       </c>
       <c r="G250" s="37">
         <v>40488</v>
@@ -10531,13 +10530,13 @@
         <v>9120</v>
       </c>
       <c r="D252" s="36">
-        <v>8190</v>
+        <v>8244</v>
       </c>
       <c r="E252" s="36">
-        <v>4817</v>
+        <v>4840</v>
       </c>
       <c r="F252" s="36">
-        <v>3373</v>
+        <v>3404</v>
       </c>
       <c r="G252" s="37">
         <v>54722</v>
@@ -10566,13 +10565,13 @@
         <v>2700</v>
       </c>
       <c r="D253" s="36">
-        <v>6009</v>
+        <v>6061</v>
       </c>
       <c r="E253" s="36">
-        <v>4224</v>
+        <v>4236</v>
       </c>
       <c r="F253" s="36">
-        <v>1785</v>
+        <v>1825</v>
       </c>
       <c r="G253" s="37">
         <v>38005</v>
@@ -10601,13 +10600,13 @@
         <v>1000</v>
       </c>
       <c r="D254" s="36">
-        <v>1348</v>
+        <v>1365</v>
       </c>
       <c r="E254" s="36">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="F254" s="36">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G254" s="37">
         <v>6135</v>
@@ -10636,13 +10635,13 @@
         <v>3900</v>
       </c>
       <c r="D255" s="36">
-        <v>2878</v>
+        <v>2926</v>
       </c>
       <c r="E255" s="36">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="F255" s="36">
-        <v>864</v>
+        <v>906</v>
       </c>
       <c r="G255" s="37">
         <v>14219</v>
@@ -10671,13 +10670,13 @@
         <v>1700</v>
       </c>
       <c r="D256" s="36">
-        <v>1594</v>
+        <v>1613</v>
       </c>
       <c r="E256" s="36">
-        <v>1391</v>
+        <v>1401</v>
       </c>
       <c r="F256" s="36">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G256" s="37">
         <v>9981</v>
@@ -10706,13 +10705,13 @@
         <v>300</v>
       </c>
       <c r="D257" s="36">
-        <v>2936</v>
+        <v>2993</v>
       </c>
       <c r="E257" s="36">
-        <v>2378</v>
+        <v>2392</v>
       </c>
       <c r="F257" s="36">
-        <v>558</v>
+        <v>601</v>
       </c>
       <c r="G257" s="37">
         <v>8840</v>
@@ -10738,16 +10737,16 @@
         <v>285</v>
       </c>
       <c r="C258" s="36">
-        <v>1135425</v>
+        <v>720525</v>
       </c>
       <c r="D258" s="36">
-        <v>219141</v>
+        <v>212512</v>
       </c>
       <c r="E258" s="36">
-        <v>184430</v>
+        <v>176333</v>
       </c>
       <c r="F258" s="36">
-        <v>34711</v>
+        <v>36179</v>
       </c>
       <c r="G258" s="37"/>
       <c r="H258" s="37"/>
@@ -10821,13 +10820,13 @@
         <v>291</v>
       </c>
       <c r="D2" s="36">
-        <v>60939</v>
+        <v>61490</v>
       </c>
       <c r="E2" s="36">
-        <v>38396</v>
+        <v>38638</v>
       </c>
       <c r="F2" s="36">
-        <v>22543</v>
+        <v>22852</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10841,13 +10840,13 @@
         <v>292</v>
       </c>
       <c r="D3" s="36">
-        <v>44573</v>
+        <v>45330</v>
       </c>
       <c r="E3" s="36">
-        <v>28937</v>
+        <v>29317</v>
       </c>
       <c r="F3" s="36">
-        <v>15636</v>
+        <v>16013</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10861,13 +10860,13 @@
         <v>290</v>
       </c>
       <c r="D4" s="36">
-        <v>160807</v>
+        <v>164908</v>
       </c>
       <c r="E4" s="36">
-        <v>108872</v>
+        <v>111177</v>
       </c>
       <c r="F4" s="36">
-        <v>51935</v>
+        <v>53731</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10881,13 +10880,13 @@
         <v>294</v>
       </c>
       <c r="D5" s="36">
-        <v>248689</v>
+        <v>252875</v>
       </c>
       <c r="E5" s="36">
-        <v>158549</v>
+        <v>160733</v>
       </c>
       <c r="F5" s="36">
-        <v>90140</v>
+        <v>92142</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10901,13 +10900,13 @@
         <v>293</v>
       </c>
       <c r="D6" s="36">
-        <v>82381</v>
+        <v>83398</v>
       </c>
       <c r="E6" s="36">
-        <v>54663</v>
+        <v>55130</v>
       </c>
       <c r="F6" s="36">
-        <v>27718</v>
+        <v>28268</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10921,13 +10920,13 @@
         <v>280</v>
       </c>
       <c r="D7" s="36">
-        <v>326822</v>
+        <v>327458</v>
       </c>
       <c r="E7" s="36">
-        <v>210160</v>
+        <v>208755</v>
       </c>
       <c r="F7" s="36">
-        <v>116662</v>
+        <v>118703</v>
       </c>
       <c r="O7" s="29"/>
     </row>
@@ -10942,13 +10941,13 @@
         <v>291</v>
       </c>
       <c r="D8" s="36">
-        <v>31030</v>
+        <v>31540</v>
       </c>
       <c r="E8" s="36">
-        <v>20690</v>
+        <v>20903</v>
       </c>
       <c r="F8" s="36">
-        <v>10340</v>
+        <v>10637</v>
       </c>
       <c r="O8" s="29"/>
     </row>
@@ -10963,13 +10962,13 @@
         <v>292</v>
       </c>
       <c r="D9" s="36">
-        <v>39476</v>
+        <v>40394</v>
       </c>
       <c r="E9" s="36">
-        <v>27274</v>
+        <v>27736</v>
       </c>
       <c r="F9" s="36">
-        <v>12202</v>
+        <v>12658</v>
       </c>
       <c r="O9" s="29"/>
     </row>
@@ -10984,13 +10983,13 @@
         <v>290</v>
       </c>
       <c r="D10" s="36">
-        <v>95083</v>
+        <v>98179</v>
       </c>
       <c r="E10" s="36">
-        <v>68931</v>
+        <v>70674</v>
       </c>
       <c r="F10" s="36">
-        <v>26152</v>
+        <v>27505</v>
       </c>
       <c r="O10" s="29"/>
     </row>
@@ -11005,13 +11004,13 @@
         <v>294</v>
       </c>
       <c r="D11" s="36">
-        <v>187162</v>
+        <v>191648</v>
       </c>
       <c r="E11" s="36">
-        <v>129640</v>
+        <v>131694</v>
       </c>
       <c r="F11" s="36">
-        <v>57522</v>
+        <v>59954</v>
       </c>
       <c r="O11" s="29"/>
     </row>
@@ -11026,13 +11025,13 @@
         <v>293</v>
       </c>
       <c r="D12" s="36">
-        <v>52978</v>
+        <v>53608</v>
       </c>
       <c r="E12" s="36">
-        <v>36649</v>
+        <v>36886</v>
       </c>
       <c r="F12" s="36">
-        <v>16329</v>
+        <v>16722</v>
       </c>
       <c r="O12" s="29"/>
     </row>
@@ -11047,13 +11046,13 @@
         <v>280</v>
       </c>
       <c r="D13" s="36">
-        <v>212879</v>
+        <v>214185</v>
       </c>
       <c r="E13" s="36">
-        <v>143565</v>
+        <v>142763</v>
       </c>
       <c r="F13" s="36">
-        <v>69314</v>
+        <v>71422</v>
       </c>
       <c r="O13" s="29"/>
     </row>
@@ -11068,13 +11067,13 @@
         <v>291</v>
       </c>
       <c r="D14" s="36">
-        <v>35614</v>
+        <v>36428</v>
       </c>
       <c r="E14" s="36">
-        <v>25255</v>
+        <v>25642</v>
       </c>
       <c r="F14" s="36">
-        <v>10359</v>
+        <v>10786</v>
       </c>
       <c r="O14" s="29"/>
     </row>
@@ -11089,13 +11088,13 @@
         <v>292</v>
       </c>
       <c r="D15" s="36">
-        <v>41449</v>
+        <v>42953</v>
       </c>
       <c r="E15" s="36">
-        <v>31534</v>
+        <v>32214</v>
       </c>
       <c r="F15" s="36">
-        <v>9915</v>
+        <v>10739</v>
       </c>
       <c r="O15" s="29"/>
     </row>
@@ -11110,13 +11109,13 @@
         <v>290</v>
       </c>
       <c r="D16" s="36">
-        <v>90189</v>
+        <v>93532</v>
       </c>
       <c r="E16" s="36">
-        <v>68013</v>
+        <v>69909</v>
       </c>
       <c r="F16" s="36">
-        <v>22176</v>
+        <v>23623</v>
       </c>
       <c r="O16" s="29"/>
     </row>
@@ -11131,13 +11130,13 @@
         <v>294</v>
       </c>
       <c r="D17" s="36">
-        <v>330706</v>
+        <v>340260</v>
       </c>
       <c r="E17" s="36">
-        <v>242618</v>
+        <v>246528</v>
       </c>
       <c r="F17" s="36">
-        <v>88088</v>
+        <v>93732</v>
       </c>
       <c r="O17" s="29"/>
     </row>
@@ -11152,13 +11151,13 @@
         <v>293</v>
       </c>
       <c r="D18" s="36">
-        <v>61704</v>
+        <v>62902</v>
       </c>
       <c r="E18" s="36">
-        <v>43795</v>
+        <v>44357</v>
       </c>
       <c r="F18" s="36">
-        <v>17909</v>
+        <v>18545</v>
       </c>
       <c r="O18" s="29"/>
     </row>
@@ -11173,13 +11172,13 @@
         <v>280</v>
       </c>
       <c r="D19" s="36">
-        <v>234973</v>
+        <v>236999</v>
       </c>
       <c r="E19" s="36">
-        <v>169012</v>
+        <v>167855</v>
       </c>
       <c r="F19" s="36">
-        <v>65961</v>
+        <v>69144</v>
       </c>
       <c r="O19" s="29"/>
     </row>
@@ -11194,13 +11193,13 @@
         <v>291</v>
       </c>
       <c r="D20" s="36">
-        <v>7679</v>
+        <v>7869</v>
       </c>
       <c r="E20" s="36">
-        <v>5274</v>
+        <v>5380</v>
       </c>
       <c r="F20" s="36">
-        <v>2405</v>
+        <v>2489</v>
       </c>
       <c r="O20" s="29"/>
     </row>
@@ -11215,13 +11214,13 @@
         <v>292</v>
       </c>
       <c r="D21" s="36">
-        <v>9084</v>
+        <v>9447</v>
       </c>
       <c r="E21" s="36">
-        <v>6856</v>
+        <v>7075</v>
       </c>
       <c r="F21" s="36">
-        <v>2228</v>
+        <v>2372</v>
       </c>
       <c r="O21" s="29"/>
     </row>
@@ -11236,13 +11235,13 @@
         <v>290</v>
       </c>
       <c r="D22" s="36">
-        <v>22611</v>
+        <v>23579</v>
       </c>
       <c r="E22" s="36">
-        <v>17254</v>
+        <v>17862</v>
       </c>
       <c r="F22" s="36">
-        <v>5357</v>
+        <v>5717</v>
       </c>
       <c r="O22" s="29"/>
     </row>
@@ -11257,13 +11256,13 @@
         <v>294</v>
       </c>
       <c r="D23" s="36">
-        <v>98786</v>
+        <v>101554</v>
       </c>
       <c r="E23" s="36">
-        <v>71042</v>
+        <v>72185</v>
       </c>
       <c r="F23" s="36">
-        <v>27744</v>
+        <v>29369</v>
       </c>
       <c r="O23" s="29"/>
     </row>
@@ -11278,13 +11277,13 @@
         <v>293</v>
       </c>
       <c r="D24" s="36">
-        <v>52476</v>
+        <v>53077</v>
       </c>
       <c r="E24" s="36">
-        <v>35483</v>
+        <v>35603</v>
       </c>
       <c r="F24" s="36">
-        <v>16993</v>
+        <v>17474</v>
       </c>
       <c r="O24" s="29"/>
     </row>
@@ -11299,13 +11298,13 @@
         <v>280</v>
       </c>
       <c r="D25" s="36">
-        <v>83272</v>
+        <v>83728</v>
       </c>
       <c r="E25" s="36">
-        <v>59751</v>
+        <v>59192</v>
       </c>
       <c r="F25" s="36">
-        <v>23521</v>
+        <v>24536</v>
       </c>
       <c r="O25" s="29"/>
     </row>
@@ -11320,10 +11319,10 @@
         <v>291</v>
       </c>
       <c r="D26" s="36">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="36">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="36">
         <v>3</v>
@@ -11341,10 +11340,10 @@
         <v>292</v>
       </c>
       <c r="D27" s="36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" s="36">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F27" s="36">
         <v>8</v>
@@ -11446,13 +11445,13 @@
         <v>291</v>
       </c>
       <c r="D32" s="36">
-        <v>41708</v>
+        <v>42139</v>
       </c>
       <c r="E32" s="36">
-        <v>26975</v>
+        <v>27188</v>
       </c>
       <c r="F32" s="36">
-        <v>14733</v>
+        <v>14951</v>
       </c>
       <c r="O32" s="29"/>
     </row>
@@ -11467,13 +11466,13 @@
         <v>292</v>
       </c>
       <c r="D33" s="36">
-        <v>20787</v>
+        <v>21252</v>
       </c>
       <c r="E33" s="36">
-        <v>13939</v>
+        <v>14174</v>
       </c>
       <c r="F33" s="36">
-        <v>6848</v>
+        <v>7078</v>
       </c>
       <c r="O33" s="29"/>
     </row>
@@ -11488,13 +11487,13 @@
         <v>290</v>
       </c>
       <c r="D34" s="36">
-        <v>94528</v>
+        <v>97197</v>
       </c>
       <c r="E34" s="36">
-        <v>66495</v>
+        <v>68050</v>
       </c>
       <c r="F34" s="36">
-        <v>28033</v>
+        <v>29147</v>
       </c>
       <c r="O34" s="29"/>
     </row>
@@ -11509,13 +11508,13 @@
         <v>294</v>
       </c>
       <c r="D35" s="36">
-        <v>138898</v>
+        <v>141699</v>
       </c>
       <c r="E35" s="36">
-        <v>92139</v>
+        <v>93590</v>
       </c>
       <c r="F35" s="36">
-        <v>46759</v>
+        <v>48109</v>
       </c>
       <c r="O35" s="29"/>
     </row>
@@ -11530,13 +11529,13 @@
         <v>293</v>
       </c>
       <c r="D36" s="36">
-        <v>41827</v>
+        <v>42527</v>
       </c>
       <c r="E36" s="36">
-        <v>28191</v>
+        <v>28556</v>
       </c>
       <c r="F36" s="36">
-        <v>13636</v>
+        <v>13971</v>
       </c>
       <c r="O36" s="29"/>
     </row>
@@ -11551,13 +11550,13 @@
         <v>280</v>
       </c>
       <c r="D37" s="36">
-        <v>200486</v>
+        <v>201228</v>
       </c>
       <c r="E37" s="36">
-        <v>131014</v>
+        <v>130304</v>
       </c>
       <c r="F37" s="36">
-        <v>69472</v>
+        <v>70924</v>
       </c>
       <c r="O37" s="29"/>
     </row>
@@ -11572,13 +11571,13 @@
         <v>291</v>
       </c>
       <c r="D38" s="36">
-        <v>23483</v>
+        <v>23924</v>
       </c>
       <c r="E38" s="36">
-        <v>16079</v>
+        <v>16268</v>
       </c>
       <c r="F38" s="36">
-        <v>7404</v>
+        <v>7656</v>
       </c>
       <c r="O38" s="29"/>
     </row>
@@ -11593,13 +11592,13 @@
         <v>292</v>
       </c>
       <c r="D39" s="36">
-        <v>23294</v>
+        <v>23922</v>
       </c>
       <c r="E39" s="36">
-        <v>16719</v>
+        <v>17031</v>
       </c>
       <c r="F39" s="36">
-        <v>6575</v>
+        <v>6891</v>
       </c>
       <c r="O39" s="29"/>
     </row>
@@ -11614,13 +11613,13 @@
         <v>290</v>
       </c>
       <c r="D40" s="36">
-        <v>65223</v>
+        <v>67543</v>
       </c>
       <c r="E40" s="36">
-        <v>48304</v>
+        <v>49631</v>
       </c>
       <c r="F40" s="36">
-        <v>16919</v>
+        <v>17912</v>
       </c>
       <c r="O40" s="29"/>
     </row>
@@ -11635,13 +11634,13 @@
         <v>294</v>
       </c>
       <c r="D41" s="36">
-        <v>129574</v>
+        <v>133116</v>
       </c>
       <c r="E41" s="36">
-        <v>92215</v>
+        <v>93839</v>
       </c>
       <c r="F41" s="36">
-        <v>37359</v>
+        <v>39277</v>
       </c>
       <c r="O41" s="29"/>
     </row>
@@ -11656,13 +11655,13 @@
         <v>293</v>
       </c>
       <c r="D42" s="36">
-        <v>30454</v>
+        <v>30906</v>
       </c>
       <c r="E42" s="36">
-        <v>21325</v>
+        <v>21509</v>
       </c>
       <c r="F42" s="36">
-        <v>9129</v>
+        <v>9397</v>
       </c>
       <c r="O42" s="29"/>
     </row>
@@ -11677,13 +11676,13 @@
         <v>280</v>
       </c>
       <c r="D43" s="36">
-        <v>144936</v>
+        <v>146120</v>
       </c>
       <c r="E43" s="36">
-        <v>99399</v>
+        <v>98940</v>
       </c>
       <c r="F43" s="36">
-        <v>45537</v>
+        <v>47180</v>
       </c>
       <c r="O43" s="29"/>
     </row>
@@ -11698,13 +11697,13 @@
         <v>291</v>
       </c>
       <c r="D44" s="36">
-        <v>31474</v>
+        <v>32128</v>
       </c>
       <c r="E44" s="36">
-        <v>22244</v>
+        <v>22530</v>
       </c>
       <c r="F44" s="36">
-        <v>9230</v>
+        <v>9598</v>
       </c>
       <c r="O44" s="29"/>
     </row>
@@ -11719,13 +11718,13 @@
         <v>292</v>
       </c>
       <c r="D45" s="36">
-        <v>26986</v>
+        <v>27953</v>
       </c>
       <c r="E45" s="36">
-        <v>20500</v>
+        <v>20993</v>
       </c>
       <c r="F45" s="36">
-        <v>6486</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -11739,13 +11738,13 @@
         <v>290</v>
       </c>
       <c r="D46" s="36">
-        <v>68520</v>
+        <v>71021</v>
       </c>
       <c r="E46" s="36">
-        <v>51427</v>
+        <v>52835</v>
       </c>
       <c r="F46" s="36">
-        <v>17093</v>
+        <v>18186</v>
       </c>
       <c r="O46" s="29"/>
     </row>
@@ -11760,13 +11759,13 @@
         <v>294</v>
       </c>
       <c r="D47" s="36">
-        <v>284801</v>
+        <v>293086</v>
       </c>
       <c r="E47" s="36">
-        <v>208210</v>
+        <v>211561</v>
       </c>
       <c r="F47" s="36">
-        <v>76591</v>
+        <v>81525</v>
       </c>
       <c r="O47" s="29"/>
     </row>
@@ -11781,13 +11780,13 @@
         <v>293</v>
       </c>
       <c r="D48" s="36">
-        <v>45803</v>
+        <v>46690</v>
       </c>
       <c r="E48" s="36">
-        <v>32503</v>
+        <v>32938</v>
       </c>
       <c r="F48" s="36">
-        <v>13300</v>
+        <v>13752</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -11801,13 +11800,13 @@
         <v>280</v>
       </c>
       <c r="D49" s="36">
-        <v>194637</v>
+        <v>196398</v>
       </c>
       <c r="E49" s="36">
-        <v>139437</v>
+        <v>138642</v>
       </c>
       <c r="F49" s="36">
-        <v>55200</v>
+        <v>57756</v>
       </c>
       <c r="O49" s="29"/>
     </row>
@@ -11822,13 +11821,13 @@
         <v>291</v>
       </c>
       <c r="D50" s="36">
-        <v>6698</v>
+        <v>6871</v>
       </c>
       <c r="E50" s="36">
-        <v>4501</v>
+        <v>4601</v>
       </c>
       <c r="F50" s="36">
-        <v>2197</v>
+        <v>2270</v>
       </c>
       <c r="O50" s="29"/>
     </row>
@@ -11843,13 +11842,13 @@
         <v>292</v>
       </c>
       <c r="D51" s="36">
-        <v>4613</v>
+        <v>4800</v>
       </c>
       <c r="E51" s="36">
-        <v>3403</v>
+        <v>3506</v>
       </c>
       <c r="F51" s="36">
-        <v>1210</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -11863,13 +11862,13 @@
         <v>290</v>
       </c>
       <c r="D52" s="36">
-        <v>13902</v>
+        <v>14536</v>
       </c>
       <c r="E52" s="36">
-        <v>10557</v>
+        <v>10927</v>
       </c>
       <c r="F52" s="36">
-        <v>3345</v>
+        <v>3609</v>
       </c>
       <c r="O52" s="29"/>
     </row>
@@ -11884,13 +11883,13 @@
         <v>294</v>
       </c>
       <c r="D53" s="36">
-        <v>78673</v>
+        <v>80752</v>
       </c>
       <c r="E53" s="36">
-        <v>55095</v>
+        <v>55988</v>
       </c>
       <c r="F53" s="36">
-        <v>23578</v>
+        <v>24764</v>
       </c>
       <c r="O53" s="29"/>
     </row>
@@ -11905,13 +11904,13 @@
         <v>293</v>
       </c>
       <c r="D54" s="36">
-        <v>22684</v>
+        <v>23020</v>
       </c>
       <c r="E54" s="36">
-        <v>15518</v>
+        <v>15610</v>
       </c>
       <c r="F54" s="36">
-        <v>7166</v>
+        <v>7410</v>
       </c>
       <c r="O54" s="29"/>
     </row>
@@ -11926,13 +11925,13 @@
         <v>280</v>
       </c>
       <c r="D55" s="36">
-        <v>53943</v>
+        <v>54195</v>
       </c>
       <c r="E55" s="36">
-        <v>38751</v>
+        <v>38288</v>
       </c>
       <c r="F55" s="36">
-        <v>15192</v>
+        <v>15907</v>
       </c>
       <c r="O55" s="29"/>
     </row>
@@ -11988,13 +11987,13 @@
         <v>290</v>
       </c>
       <c r="D58" s="36">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E58" s="36">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F58" s="36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O58" s="29"/>
     </row>
@@ -12009,13 +12008,13 @@
         <v>294</v>
       </c>
       <c r="D59" s="36">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E59" s="36">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F59" s="36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O59" s="29"/>
     </row>
@@ -12030,13 +12029,13 @@
         <v>293</v>
       </c>
       <c r="D60" s="36">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E60" s="36">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F60" s="36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O60" s="29"/>
     </row>
@@ -12051,13 +12050,13 @@
         <v>280</v>
       </c>
       <c r="D61" s="36">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E61" s="36">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F61" s="36">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O61" s="29"/>
     </row>
@@ -12072,13 +12071,13 @@
         <v>291</v>
       </c>
       <c r="D62" s="36">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="E62" s="36">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="F62" s="36">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O62" s="29"/>
     </row>
@@ -12093,13 +12092,13 @@
         <v>292</v>
       </c>
       <c r="D63" s="36">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E63" s="36">
         <v>394</v>
       </c>
       <c r="F63" s="36">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12113,13 +12112,13 @@
         <v>290</v>
       </c>
       <c r="D64" s="36">
-        <v>1343</v>
+        <v>1362</v>
       </c>
       <c r="E64" s="36">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="F64" s="36">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="O64" s="29"/>
     </row>
@@ -12134,13 +12133,13 @@
         <v>294</v>
       </c>
       <c r="D65" s="36">
-        <v>2802</v>
+        <v>2829</v>
       </c>
       <c r="E65" s="36">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="F65" s="36">
-        <v>996</v>
+        <v>1015</v>
       </c>
       <c r="O65" s="29"/>
     </row>
@@ -12155,13 +12154,13 @@
         <v>293</v>
       </c>
       <c r="D66" s="36">
-        <v>2164</v>
+        <v>2169</v>
       </c>
       <c r="E66" s="36">
         <v>1289</v>
       </c>
       <c r="F66" s="36">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12175,13 +12174,13 @@
         <v>280</v>
       </c>
       <c r="D67" s="36">
-        <v>11244</v>
+        <v>11752</v>
       </c>
       <c r="E67" s="36">
-        <v>9337</v>
+        <v>9430</v>
       </c>
       <c r="F67" s="36">
-        <v>1907</v>
+        <v>2322</v>
       </c>
       <c r="O67" s="29"/>
     </row>
@@ -12196,13 +12195,13 @@
         <v>291</v>
       </c>
       <c r="D68" s="36">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E68" s="36">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F68" s="36">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O68" s="29"/>
     </row>
@@ -12217,13 +12216,13 @@
         <v>292</v>
       </c>
       <c r="D69" s="36">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="E69" s="36">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F69" s="36">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12237,13 +12236,13 @@
         <v>290</v>
       </c>
       <c r="D70" s="36">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="E70" s="36">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F70" s="36">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="O70" s="29"/>
     </row>
@@ -12258,13 +12257,13 @@
         <v>294</v>
       </c>
       <c r="D71" s="36">
-        <v>2375</v>
+        <v>2400</v>
       </c>
       <c r="E71" s="36">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F71" s="36">
-        <v>821</v>
+        <v>847</v>
       </c>
       <c r="O71" s="29"/>
     </row>
@@ -12279,13 +12278,13 @@
         <v>293</v>
       </c>
       <c r="D72" s="36">
-        <v>1322</v>
+        <v>1335</v>
       </c>
       <c r="E72" s="36">
         <v>814</v>
       </c>
       <c r="F72" s="36">
-        <v>508</v>
+        <v>521</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12299,13 +12298,13 @@
         <v>280</v>
       </c>
       <c r="D73" s="36">
-        <v>11213</v>
+        <v>11825</v>
       </c>
       <c r="E73" s="36">
-        <v>8977</v>
+        <v>9073</v>
       </c>
       <c r="F73" s="36">
-        <v>2236</v>
+        <v>2752</v>
       </c>
       <c r="O73" s="29"/>
     </row>
@@ -12320,13 +12319,13 @@
         <v>291</v>
       </c>
       <c r="D74" s="36">
-        <v>1938</v>
+        <v>1956</v>
       </c>
       <c r="E74" s="36">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="F74" s="36">
-        <v>741</v>
+        <v>767</v>
       </c>
       <c r="O74" s="29"/>
     </row>
@@ -12341,13 +12340,13 @@
         <v>292</v>
       </c>
       <c r="D75" s="36">
-        <v>1216</v>
+        <v>1258</v>
       </c>
       <c r="E75" s="36">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F75" s="36">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="O75" s="29"/>
     </row>
@@ -12362,13 +12361,13 @@
         <v>290</v>
       </c>
       <c r="D76" s="36">
-        <v>1416</v>
+        <v>1464</v>
       </c>
       <c r="E76" s="36">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F76" s="36">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="O76" s="29"/>
     </row>
@@ -12383,13 +12382,13 @@
         <v>294</v>
       </c>
       <c r="D77" s="36">
-        <v>11639</v>
+        <v>11961</v>
       </c>
       <c r="E77" s="36">
-        <v>7403</v>
+        <v>7375</v>
       </c>
       <c r="F77" s="36">
-        <v>4236</v>
+        <v>4586</v>
       </c>
       <c r="O77" s="29"/>
     </row>
@@ -12404,13 +12403,13 @@
         <v>293</v>
       </c>
       <c r="D78" s="36">
-        <v>4851</v>
+        <v>5006</v>
       </c>
       <c r="E78" s="36">
-        <v>2921</v>
+        <v>2927</v>
       </c>
       <c r="F78" s="36">
-        <v>1930</v>
+        <v>2079</v>
       </c>
       <c r="O78" s="29"/>
     </row>
@@ -12425,13 +12424,13 @@
         <v>280</v>
       </c>
       <c r="D79" s="36">
-        <v>19267</v>
+        <v>20207</v>
       </c>
       <c r="E79" s="36">
-        <v>13441</v>
+        <v>13614</v>
       </c>
       <c r="F79" s="36">
-        <v>5826</v>
+        <v>6593</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12448,10 +12447,10 @@
         <v>324</v>
       </c>
       <c r="E80" s="36">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F80" s="36">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12465,13 +12464,13 @@
         <v>292</v>
       </c>
       <c r="D81" s="36">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E81" s="36">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F81" s="36">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12485,13 +12484,13 @@
         <v>290</v>
       </c>
       <c r="D82" s="36">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E82" s="36">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F82" s="36">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12505,13 +12504,13 @@
         <v>294</v>
       </c>
       <c r="D83" s="36">
-        <v>2182</v>
+        <v>2266</v>
       </c>
       <c r="E83" s="36">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="F83" s="36">
-        <v>760</v>
+        <v>843</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12525,13 +12524,13 @@
         <v>293</v>
       </c>
       <c r="D84" s="36">
-        <v>861</v>
+        <v>888</v>
       </c>
       <c r="E84" s="36">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F84" s="36">
-        <v>335</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12545,13 +12544,13 @@
         <v>280</v>
       </c>
       <c r="D85" s="36">
-        <v>3138</v>
+        <v>3235</v>
       </c>
       <c r="E85" s="36">
-        <v>2299</v>
+        <v>2334</v>
       </c>
       <c r="F85" s="36">
-        <v>839</v>
+        <v>901</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12685,16 +12684,17 @@
         <v>281</v>
       </c>
       <c r="D92" s="36">
-        <v>4485029</v>
+        <v>4569109</v>
       </c>
       <c r="E92" s="36">
-        <v>3118003</v>
+        <v>3146940</v>
       </c>
       <c r="F92" s="36">
-        <v>1367026</v>
+        <v>1422169</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F92" xr:uid="{B951560F-8D67-4174-8220-321889822A0A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12702,7 +12702,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C349"/>
+  <dimension ref="A1:C354"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12788,7 +12788,7 @@
         <v>44184</v>
       </c>
       <c r="C7" s="31">
-        <v>12385</v>
+        <v>12386</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12821,7 +12821,7 @@
         <v>44187</v>
       </c>
       <c r="C10" s="31">
-        <v>17267</v>
+        <v>17268</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12832,7 +12832,7 @@
         <v>44188</v>
       </c>
       <c r="C11" s="31">
-        <v>24737</v>
+        <v>24738</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12876,7 +12876,7 @@
         <v>44192</v>
       </c>
       <c r="C15" s="31">
-        <v>5318</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12887,7 +12887,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="31">
-        <v>25595</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12898,7 +12898,7 @@
         <v>44194</v>
       </c>
       <c r="C17" s="31">
-        <v>32232</v>
+        <v>32238</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12909,7 +12909,7 @@
         <v>44195</v>
       </c>
       <c r="C18" s="31">
-        <v>38130</v>
+        <v>38135</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12920,7 +12920,7 @@
         <v>44196</v>
       </c>
       <c r="C19" s="31">
-        <v>21703</v>
+        <v>21704</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12931,7 +12931,7 @@
         <v>44197</v>
       </c>
       <c r="C20" s="31">
-        <v>2330</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12942,7 +12942,7 @@
         <v>44198</v>
       </c>
       <c r="C21" s="31">
-        <v>10146</v>
+        <v>10161</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12953,7 +12953,7 @@
         <v>44199</v>
       </c>
       <c r="C22" s="31">
-        <v>6341</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12964,7 +12964,7 @@
         <v>44200</v>
       </c>
       <c r="C23" s="31">
-        <v>24289</v>
+        <v>24374</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12975,7 +12975,7 @@
         <v>44201</v>
       </c>
       <c r="C24" s="31">
-        <v>28201</v>
+        <v>28218</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12986,7 +12986,7 @@
         <v>44202</v>
       </c>
       <c r="C25" s="31">
-        <v>36318</v>
+        <v>36321</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12997,7 +12997,7 @@
         <v>44203</v>
       </c>
       <c r="C26" s="31">
-        <v>41072</v>
+        <v>41082</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13008,7 +13008,7 @@
         <v>44204</v>
       </c>
       <c r="C27" s="31">
-        <v>44153</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13019,7 +13019,7 @@
         <v>44205</v>
       </c>
       <c r="C28" s="31">
-        <v>18640</v>
+        <v>18639</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13030,7 +13030,7 @@
         <v>44206</v>
       </c>
       <c r="C29" s="31">
-        <v>8477</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13041,7 +13041,7 @@
         <v>44207</v>
       </c>
       <c r="C30" s="31">
-        <v>28648</v>
+        <v>28651</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13052,7 +13052,7 @@
         <v>44208</v>
       </c>
       <c r="C31" s="31">
-        <v>30377</v>
+        <v>30392</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13063,7 +13063,7 @@
         <v>44209</v>
       </c>
       <c r="C32" s="31">
-        <v>28318</v>
+        <v>28326</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13074,7 +13074,7 @@
         <v>44210</v>
       </c>
       <c r="C33" s="31">
-        <v>21910</v>
+        <v>22158</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13085,7 +13085,7 @@
         <v>44211</v>
       </c>
       <c r="C34" s="31">
-        <v>23955</v>
+        <v>23962</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13096,7 +13096,7 @@
         <v>44212</v>
       </c>
       <c r="C35" s="31">
-        <v>13081</v>
+        <v>13089</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13118,7 +13118,7 @@
         <v>44214</v>
       </c>
       <c r="C37" s="31">
-        <v>12278</v>
+        <v>12281</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13129,7 +13129,7 @@
         <v>44215</v>
       </c>
       <c r="C38" s="31">
-        <v>22581</v>
+        <v>22609</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13140,7 +13140,7 @@
         <v>44216</v>
       </c>
       <c r="C39" s="31">
-        <v>30293</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13151,7 +13151,7 @@
         <v>44217</v>
       </c>
       <c r="C40" s="31">
-        <v>27740</v>
+        <v>27755</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13162,7 +13162,7 @@
         <v>44218</v>
       </c>
       <c r="C41" s="31">
-        <v>33564</v>
+        <v>33597</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13173,7 +13173,7 @@
         <v>44219</v>
       </c>
       <c r="C42" s="31">
-        <v>18691</v>
+        <v>18711</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13184,7 +13184,7 @@
         <v>44220</v>
       </c>
       <c r="C43" s="31">
-        <v>7806</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13195,7 +13195,7 @@
         <v>44221</v>
       </c>
       <c r="C44" s="31">
-        <v>34831</v>
+        <v>34862</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13206,7 +13206,7 @@
         <v>44222</v>
       </c>
       <c r="C45" s="31">
-        <v>41964</v>
+        <v>42117</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13217,7 +13217,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="31">
-        <v>43112</v>
+        <v>43190</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13228,7 +13228,7 @@
         <v>44224</v>
       </c>
       <c r="C47" s="31">
-        <v>39487</v>
+        <v>39499</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13239,7 +13239,7 @@
         <v>44225</v>
       </c>
       <c r="C48" s="31">
-        <v>37015</v>
+        <v>37101</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13250,7 +13250,7 @@
         <v>44226</v>
       </c>
       <c r="C49" s="31">
-        <v>18405</v>
+        <v>18516</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13261,7 +13261,7 @@
         <v>44227</v>
       </c>
       <c r="C50" s="31">
-        <v>7627</v>
+        <v>7629</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13272,7 +13272,7 @@
         <v>44228</v>
       </c>
       <c r="C51" s="31">
-        <v>31635</v>
+        <v>31691</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13283,7 +13283,7 @@
         <v>44229</v>
       </c>
       <c r="C52" s="31">
-        <v>31215</v>
+        <v>31242</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13294,7 +13294,7 @@
         <v>44230</v>
       </c>
       <c r="C53" s="31">
-        <v>43425</v>
+        <v>43509</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13305,7 +13305,7 @@
         <v>44231</v>
       </c>
       <c r="C54" s="31">
-        <v>42406</v>
+        <v>42487</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13316,7 +13316,7 @@
         <v>44232</v>
       </c>
       <c r="C55" s="31">
-        <v>47361</v>
+        <v>47528</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13327,7 +13327,7 @@
         <v>44233</v>
       </c>
       <c r="C56" s="31">
-        <v>26783</v>
+        <v>26790</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13338,7 +13338,7 @@
         <v>44234</v>
       </c>
       <c r="C57" s="31">
-        <v>5415</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13349,7 +13349,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="31">
-        <v>23260</v>
+        <v>23323</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13360,7 +13360,7 @@
         <v>44236</v>
       </c>
       <c r="C59" s="31">
-        <v>33147</v>
+        <v>33333</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13371,7 +13371,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="31">
-        <v>41172</v>
+        <v>41301</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13382,7 +13382,7 @@
         <v>44238</v>
       </c>
       <c r="C61" s="31">
-        <v>32520</v>
+        <v>32686</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13393,7 +13393,7 @@
         <v>44239</v>
       </c>
       <c r="C62" s="31">
-        <v>38120</v>
+        <v>38777</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13404,7 +13404,7 @@
         <v>44240</v>
       </c>
       <c r="C63" s="31">
-        <v>21672</v>
+        <v>22454</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13415,7 +13415,7 @@
         <v>44241</v>
       </c>
       <c r="C64" s="31">
-        <v>4673</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13426,7 +13426,7 @@
         <v>44242</v>
       </c>
       <c r="C65" s="31">
-        <v>4126</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13437,7 +13437,7 @@
         <v>44243</v>
       </c>
       <c r="C66" s="31">
-        <v>5653</v>
+        <v>6151</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13448,7 +13448,7 @@
         <v>44244</v>
       </c>
       <c r="C67" s="31">
-        <v>3961</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13459,7 +13459,7 @@
         <v>44245</v>
       </c>
       <c r="C68" s="31">
-        <v>6908</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13470,7 +13470,7 @@
         <v>44246</v>
       </c>
       <c r="C69" s="31">
-        <v>5952</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13481,7 +13481,7 @@
         <v>44247</v>
       </c>
       <c r="C70" s="31">
-        <v>6827</v>
+        <v>13223</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13492,18 +13492,18 @@
         <v>44248</v>
       </c>
       <c r="C71" s="31">
-        <v>2114</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B72" s="34">
-        <v>44179</v>
+        <v>44249</v>
       </c>
       <c r="C72" s="31">
-        <v>139</v>
+        <v>6085</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13511,10 +13511,10 @@
         <v>277</v>
       </c>
       <c r="B73" s="34">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="C73" s="31">
-        <v>1491</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13522,10 +13522,10 @@
         <v>277</v>
       </c>
       <c r="B74" s="34">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="C74" s="31">
-        <v>4970</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13533,10 +13533,10 @@
         <v>277</v>
       </c>
       <c r="B75" s="34">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="C75" s="31">
-        <v>6646</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13544,10 +13544,10 @@
         <v>277</v>
       </c>
       <c r="B76" s="34">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="C76" s="31">
-        <v>10854</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13555,10 +13555,10 @@
         <v>277</v>
       </c>
       <c r="B77" s="34">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="C77" s="31">
-        <v>4709</v>
+        <v>10855</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13566,10 +13566,10 @@
         <v>277</v>
       </c>
       <c r="B78" s="34">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C78" s="31">
-        <v>2533</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13577,10 +13577,10 @@
         <v>277</v>
       </c>
       <c r="B79" s="34">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="C79" s="31">
-        <v>7912</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13588,10 +13588,10 @@
         <v>277</v>
       </c>
       <c r="B80" s="34">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="C80" s="31">
-        <v>7420</v>
+        <v>7912</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13599,10 +13599,10 @@
         <v>277</v>
       </c>
       <c r="B81" s="34">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="C81" s="31">
-        <v>10841</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13610,10 +13610,10 @@
         <v>277</v>
       </c>
       <c r="B82" s="34">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="C82" s="31">
-        <v>4640</v>
+        <v>10841</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13621,10 +13621,10 @@
         <v>277</v>
       </c>
       <c r="B83" s="34">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="C83" s="31">
-        <v>668</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13632,10 +13632,10 @@
         <v>277</v>
       </c>
       <c r="B84" s="34">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="C84" s="31">
-        <v>3186</v>
+        <v>668</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13643,10 +13643,10 @@
         <v>277</v>
       </c>
       <c r="B85" s="34">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="C85" s="31">
-        <v>2243</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13654,10 +13654,10 @@
         <v>277</v>
       </c>
       <c r="B86" s="34">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="C86" s="31">
-        <v>12966</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13665,10 +13665,10 @@
         <v>277</v>
       </c>
       <c r="B87" s="34">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="C87" s="31">
-        <v>17038</v>
+        <v>12968</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13676,10 +13676,10 @@
         <v>277</v>
       </c>
       <c r="B88" s="34">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="C88" s="31">
-        <v>20969</v>
+        <v>17038</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13687,10 +13687,10 @@
         <v>277</v>
       </c>
       <c r="B89" s="34">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="C89" s="31">
-        <v>12637</v>
+        <v>20971</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13698,10 +13698,10 @@
         <v>277</v>
       </c>
       <c r="B90" s="34">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="C90" s="31">
-        <v>1203</v>
+        <v>12640</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13709,10 +13709,10 @@
         <v>277</v>
       </c>
       <c r="B91" s="34">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="C91" s="31">
-        <v>5831</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13720,10 +13720,10 @@
         <v>277</v>
       </c>
       <c r="B92" s="34">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="C92" s="31">
-        <v>3424</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13731,10 +13731,10 @@
         <v>277</v>
       </c>
       <c r="B93" s="34">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="C93" s="31">
-        <v>15090</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13742,10 +13742,10 @@
         <v>277</v>
       </c>
       <c r="B94" s="34">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="C94" s="31">
-        <v>16758</v>
+        <v>15148</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13753,10 +13753,10 @@
         <v>277</v>
       </c>
       <c r="B95" s="34">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="C95" s="31">
-        <v>20298</v>
+        <v>16761</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13764,10 +13764,10 @@
         <v>277</v>
       </c>
       <c r="B96" s="34">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="C96" s="31">
-        <v>23060</v>
+        <v>20311</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13775,10 +13775,10 @@
         <v>277</v>
       </c>
       <c r="B97" s="34">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="C97" s="31">
-        <v>24733</v>
+        <v>23063</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13786,10 +13786,10 @@
         <v>277</v>
       </c>
       <c r="B98" s="34">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="C98" s="31">
-        <v>10696</v>
+        <v>24744</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13797,10 +13797,10 @@
         <v>277</v>
       </c>
       <c r="B99" s="34">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="C99" s="31">
-        <v>4456</v>
+        <v>10698</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13808,10 +13808,10 @@
         <v>277</v>
       </c>
       <c r="B100" s="34">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="C100" s="31">
-        <v>18234</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13819,10 +13819,10 @@
         <v>277</v>
       </c>
       <c r="B101" s="34">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="C101" s="31">
-        <v>20567</v>
+        <v>18243</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13830,10 +13830,10 @@
         <v>277</v>
       </c>
       <c r="B102" s="34">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="C102" s="31">
-        <v>20374</v>
+        <v>20574</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13841,10 +13841,10 @@
         <v>277</v>
       </c>
       <c r="B103" s="34">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="C103" s="31">
-        <v>17474</v>
+        <v>20378</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13852,10 +13852,10 @@
         <v>277</v>
       </c>
       <c r="B104" s="34">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="C104" s="31">
-        <v>17710</v>
+        <v>17672</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13863,10 +13863,10 @@
         <v>277</v>
       </c>
       <c r="B105" s="34">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="C105" s="31">
-        <v>11203</v>
+        <v>17713</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13874,10 +13874,10 @@
         <v>277</v>
       </c>
       <c r="B106" s="34">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="C106" s="31">
-        <v>1742</v>
+        <v>11213</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13885,10 +13885,10 @@
         <v>277</v>
       </c>
       <c r="B107" s="34">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="C107" s="31">
-        <v>8759</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13896,10 +13896,10 @@
         <v>277</v>
       </c>
       <c r="B108" s="34">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="C108" s="31">
-        <v>17424</v>
+        <v>8761</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13907,10 +13907,10 @@
         <v>277</v>
       </c>
       <c r="B109" s="34">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="C109" s="31">
-        <v>22936</v>
+        <v>17450</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13918,10 +13918,10 @@
         <v>277</v>
       </c>
       <c r="B110" s="34">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="C110" s="31">
-        <v>22070</v>
+        <v>22941</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13929,10 +13929,10 @@
         <v>277</v>
       </c>
       <c r="B111" s="34">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="C111" s="31">
-        <v>23681</v>
+        <v>22084</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13940,10 +13940,10 @@
         <v>277</v>
       </c>
       <c r="B112" s="34">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="C112" s="31">
-        <v>13231</v>
+        <v>23712</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13951,10 +13951,10 @@
         <v>277</v>
       </c>
       <c r="B113" s="34">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="C113" s="31">
-        <v>5248</v>
+        <v>13246</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13962,10 +13962,10 @@
         <v>277</v>
       </c>
       <c r="B114" s="34">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="C114" s="31">
-        <v>23425</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13973,10 +13973,10 @@
         <v>277</v>
       </c>
       <c r="B115" s="34">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="C115" s="31">
-        <v>30707</v>
+        <v>23468</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13984,10 +13984,10 @@
         <v>277</v>
       </c>
       <c r="B116" s="34">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="C116" s="31">
-        <v>32846</v>
+        <v>30804</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13995,10 +13995,10 @@
         <v>277</v>
       </c>
       <c r="B117" s="34">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="C117" s="31">
-        <v>31944</v>
+        <v>32944</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14006,10 +14006,10 @@
         <v>277</v>
       </c>
       <c r="B118" s="34">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="C118" s="31">
-        <v>29441</v>
+        <v>31970</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14017,10 +14017,10 @@
         <v>277</v>
       </c>
       <c r="B119" s="34">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="C119" s="31">
-        <v>14812</v>
+        <v>29487</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14028,10 +14028,10 @@
         <v>277</v>
       </c>
       <c r="B120" s="34">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="C120" s="31">
-        <v>5954</v>
+        <v>14880</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14039,10 +14039,10 @@
         <v>277</v>
       </c>
       <c r="B121" s="34">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="C121" s="31">
-        <v>24054</v>
+        <v>5963</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14050,10 +14050,10 @@
         <v>277</v>
       </c>
       <c r="B122" s="34">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="C122" s="31">
-        <v>28077</v>
+        <v>24120</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14061,10 +14061,10 @@
         <v>277</v>
       </c>
       <c r="B123" s="34">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="C123" s="31">
-        <v>35827</v>
+        <v>28105</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14072,10 +14072,10 @@
         <v>277</v>
       </c>
       <c r="B124" s="34">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="C124" s="31">
-        <v>36961</v>
+        <v>35925</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14083,10 +14083,10 @@
         <v>277</v>
       </c>
       <c r="B125" s="34">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="C125" s="31">
-        <v>40736</v>
+        <v>37019</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14094,10 +14094,10 @@
         <v>277</v>
       </c>
       <c r="B126" s="34">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="C126" s="31">
-        <v>24185</v>
+        <v>40870</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14105,10 +14105,10 @@
         <v>277</v>
       </c>
       <c r="B127" s="34">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="C127" s="31">
-        <v>5781</v>
+        <v>24196</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14116,10 +14116,10 @@
         <v>277</v>
       </c>
       <c r="B128" s="34">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="C128" s="31">
-        <v>21331</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14127,10 +14127,10 @@
         <v>277</v>
       </c>
       <c r="B129" s="34">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="C129" s="31">
-        <v>30450</v>
+        <v>21371</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14138,10 +14138,10 @@
         <v>277</v>
       </c>
       <c r="B130" s="34">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="C130" s="31">
-        <v>37051</v>
+        <v>30611</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14149,10 +14149,10 @@
         <v>277</v>
       </c>
       <c r="B131" s="34">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="C131" s="31">
-        <v>30526</v>
+        <v>37174</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14160,10 +14160,10 @@
         <v>277</v>
       </c>
       <c r="B132" s="34">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="C132" s="31">
-        <v>34222</v>
+        <v>30690</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14171,10 +14171,10 @@
         <v>277</v>
       </c>
       <c r="B133" s="34">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="C133" s="31">
-        <v>18653</v>
+        <v>34813</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14182,10 +14182,10 @@
         <v>277</v>
       </c>
       <c r="B134" s="34">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="C134" s="31">
-        <v>4484</v>
+        <v>19305</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14193,10 +14193,10 @@
         <v>277</v>
       </c>
       <c r="B135" s="34">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="C135" s="31">
-        <v>3263</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14204,10 +14204,10 @@
         <v>277</v>
       </c>
       <c r="B136" s="34">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="C136" s="31">
-        <v>4651</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14215,10 +14215,10 @@
         <v>277</v>
       </c>
       <c r="B137" s="34">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="C137" s="31">
-        <v>3647</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14226,10 +14226,10 @@
         <v>277</v>
       </c>
       <c r="B138" s="34">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="C138" s="31">
-        <v>6875</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14237,10 +14237,10 @@
         <v>277</v>
       </c>
       <c r="B139" s="34">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="C139" s="31">
-        <v>5609</v>
+        <v>7041</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14248,10 +14248,10 @@
         <v>277</v>
       </c>
       <c r="B140" s="34">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="C140" s="31">
-        <v>6388</v>
+        <v>5996</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14259,32 +14259,32 @@
         <v>277</v>
       </c>
       <c r="B141" s="34">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="C141" s="31">
-        <v>2429</v>
+        <v>13075</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B142" s="34">
-        <v>44179</v>
+        <v>44248</v>
       </c>
       <c r="C142" s="31">
-        <v>24</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B143" s="34">
-        <v>44180</v>
+        <v>44249</v>
       </c>
       <c r="C143" s="31">
-        <v>305</v>
+        <v>7064</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14292,10 +14292,10 @@
         <v>278</v>
       </c>
       <c r="B144" s="34">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="C144" s="31">
-        <v>955</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14303,10 +14303,10 @@
         <v>278</v>
       </c>
       <c r="B145" s="34">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C145" s="31">
-        <v>1432</v>
+        <v>305</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14314,10 +14314,10 @@
         <v>278</v>
       </c>
       <c r="B146" s="34">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="C146" s="31">
-        <v>2031</v>
+        <v>955</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14325,10 +14325,10 @@
         <v>278</v>
       </c>
       <c r="B147" s="34">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="C147" s="31">
-        <v>1009</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14336,10 +14336,10 @@
         <v>278</v>
       </c>
       <c r="B148" s="34">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="C148" s="31">
-        <v>499</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14347,10 +14347,10 @@
         <v>278</v>
       </c>
       <c r="B149" s="34">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="C149" s="31">
-        <v>1513</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14358,10 +14358,10 @@
         <v>278</v>
       </c>
       <c r="B150" s="34">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C150" s="31">
-        <v>2115</v>
+        <v>499</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14369,10 +14369,10 @@
         <v>278</v>
       </c>
       <c r="B151" s="34">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="C151" s="31">
-        <v>2935</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14380,10 +14380,10 @@
         <v>278</v>
       </c>
       <c r="B152" s="34">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="C152" s="31">
-        <v>1886</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14391,10 +14391,10 @@
         <v>278</v>
       </c>
       <c r="B153" s="34">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="C153" s="31">
-        <v>325</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14402,10 +14402,10 @@
         <v>278</v>
       </c>
       <c r="B154" s="34">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="C154" s="31">
-        <v>1725</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14413,10 +14413,10 @@
         <v>278</v>
       </c>
       <c r="B155" s="34">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="C155" s="31">
-        <v>1120</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14424,10 +14424,10 @@
         <v>278</v>
       </c>
       <c r="B156" s="34">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="C156" s="31">
-        <v>6700</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14435,10 +14435,10 @@
         <v>278</v>
       </c>
       <c r="B157" s="34">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="C157" s="31">
-        <v>10780</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14446,10 +14446,10 @@
         <v>278</v>
       </c>
       <c r="B158" s="34">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="C158" s="31">
-        <v>17580</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14457,10 +14457,10 @@
         <v>278</v>
       </c>
       <c r="B159" s="34">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="C159" s="31">
-        <v>10887</v>
+        <v>10782</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14468,10 +14468,10 @@
         <v>278</v>
       </c>
       <c r="B160" s="34">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="C160" s="31">
-        <v>1344</v>
+        <v>17580</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14479,10 +14479,10 @@
         <v>278</v>
       </c>
       <c r="B161" s="34">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="C161" s="31">
-        <v>6376</v>
+        <v>10887</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14490,10 +14490,10 @@
         <v>278</v>
       </c>
       <c r="B162" s="34">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="C162" s="31">
-        <v>3690</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14501,10 +14501,10 @@
         <v>278</v>
       </c>
       <c r="B163" s="34">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="C163" s="31">
-        <v>16547</v>
+        <v>6387</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14512,10 +14512,10 @@
         <v>278</v>
       </c>
       <c r="B164" s="34">
-        <v>44201</v>
+        <v>44199</v>
       </c>
       <c r="C164" s="31">
-        <v>18536</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14523,10 +14523,10 @@
         <v>278</v>
       </c>
       <c r="B165" s="34">
-        <v>44202</v>
+        <v>44200</v>
       </c>
       <c r="C165" s="31">
-        <v>20643</v>
+        <v>16641</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14534,10 +14534,10 @@
         <v>278</v>
       </c>
       <c r="B166" s="34">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="C166" s="31">
-        <v>24685</v>
+        <v>18541</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14545,10 +14545,10 @@
         <v>278</v>
       </c>
       <c r="B167" s="34">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="C167" s="31">
-        <v>24969</v>
+        <v>20653</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14556,10 +14556,10 @@
         <v>278</v>
       </c>
       <c r="B168" s="34">
-        <v>44205</v>
+        <v>44203</v>
       </c>
       <c r="C168" s="31">
-        <v>14068</v>
+        <v>24692</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14567,10 +14567,10 @@
         <v>278</v>
       </c>
       <c r="B169" s="34">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="C169" s="31">
-        <v>4426</v>
+        <v>24979</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14578,10 +14578,10 @@
         <v>278</v>
       </c>
       <c r="B170" s="34">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="C170" s="31">
-        <v>23893</v>
+        <v>14068</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14589,10 +14589,10 @@
         <v>278</v>
       </c>
       <c r="B171" s="34">
-        <v>44208</v>
+        <v>44206</v>
       </c>
       <c r="C171" s="31">
-        <v>29352</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14600,10 +14600,10 @@
         <v>278</v>
       </c>
       <c r="B172" s="34">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="C172" s="31">
-        <v>30373</v>
+        <v>23898</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14611,10 +14611,10 @@
         <v>278</v>
       </c>
       <c r="B173" s="34">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="C173" s="31">
-        <v>34687</v>
+        <v>29355</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14622,10 +14622,10 @@
         <v>278</v>
       </c>
       <c r="B174" s="34">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="C174" s="31">
-        <v>30800</v>
+        <v>30374</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14633,10 +14633,10 @@
         <v>278</v>
       </c>
       <c r="B175" s="34">
-        <v>44212</v>
+        <v>44210</v>
       </c>
       <c r="C175" s="31">
-        <v>25604</v>
+        <v>35095</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14644,10 +14644,10 @@
         <v>278</v>
       </c>
       <c r="B176" s="34">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="C176" s="31">
-        <v>6740</v>
+        <v>30808</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14655,10 +14655,10 @@
         <v>278</v>
       </c>
       <c r="B177" s="34">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="C177" s="31">
-        <v>12268</v>
+        <v>25612</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14666,10 +14666,10 @@
         <v>278</v>
       </c>
       <c r="B178" s="34">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="C178" s="31">
-        <v>23051</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14677,10 +14677,10 @@
         <v>278</v>
       </c>
       <c r="B179" s="34">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="C179" s="31">
-        <v>32206</v>
+        <v>12275</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14688,10 +14688,10 @@
         <v>278</v>
       </c>
       <c r="B180" s="34">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="C180" s="31">
-        <v>34077</v>
+        <v>23079</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14699,10 +14699,10 @@
         <v>278</v>
       </c>
       <c r="B181" s="34">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="C181" s="31">
-        <v>30709</v>
+        <v>32216</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14710,10 +14710,10 @@
         <v>278</v>
       </c>
       <c r="B182" s="34">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="C182" s="31">
-        <v>21962</v>
+        <v>34085</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14721,10 +14721,10 @@
         <v>278</v>
       </c>
       <c r="B183" s="34">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="C183" s="31">
-        <v>9024</v>
+        <v>30752</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14732,10 +14732,10 @@
         <v>278</v>
       </c>
       <c r="B184" s="34">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="C184" s="31">
-        <v>27141</v>
+        <v>21977</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14743,10 +14743,10 @@
         <v>278</v>
       </c>
       <c r="B185" s="34">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="C185" s="31">
-        <v>38561</v>
+        <v>9040</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14754,10 +14754,10 @@
         <v>278</v>
       </c>
       <c r="B186" s="34">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="C186" s="31">
-        <v>45726</v>
+        <v>27209</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14765,10 +14765,10 @@
         <v>278</v>
       </c>
       <c r="B187" s="34">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="C187" s="31">
-        <v>49998</v>
+        <v>38725</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14776,10 +14776,10 @@
         <v>278</v>
       </c>
       <c r="B188" s="34">
-        <v>44225</v>
+        <v>44223</v>
       </c>
       <c r="C188" s="31">
-        <v>45429</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14787,10 +14787,10 @@
         <v>278</v>
       </c>
       <c r="B189" s="34">
-        <v>44226</v>
+        <v>44224</v>
       </c>
       <c r="C189" s="31">
-        <v>23513</v>
+        <v>50060</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14798,10 +14798,10 @@
         <v>278</v>
       </c>
       <c r="B190" s="34">
-        <v>44227</v>
+        <v>44225</v>
       </c>
       <c r="C190" s="31">
-        <v>7265</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14809,10 +14809,10 @@
         <v>278</v>
       </c>
       <c r="B191" s="34">
-        <v>44228</v>
+        <v>44226</v>
       </c>
       <c r="C191" s="31">
-        <v>36304</v>
+        <v>23609</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14820,10 +14820,10 @@
         <v>278</v>
       </c>
       <c r="B192" s="34">
-        <v>44229</v>
+        <v>44227</v>
       </c>
       <c r="C192" s="31">
-        <v>46465</v>
+        <v>7277</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14831,10 +14831,10 @@
         <v>278</v>
       </c>
       <c r="B193" s="34">
-        <v>44230</v>
+        <v>44228</v>
       </c>
       <c r="C193" s="31">
-        <v>59618</v>
+        <v>37435</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14842,10 +14842,10 @@
         <v>278</v>
       </c>
       <c r="B194" s="34">
-        <v>44231</v>
+        <v>44229</v>
       </c>
       <c r="C194" s="31">
-        <v>70554</v>
+        <v>46513</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14853,10 +14853,10 @@
         <v>278</v>
       </c>
       <c r="B195" s="34">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="C195" s="31">
-        <v>71583</v>
+        <v>59683</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14864,10 +14864,10 @@
         <v>278</v>
       </c>
       <c r="B196" s="34">
-        <v>44233</v>
+        <v>44231</v>
       </c>
       <c r="C196" s="31">
-        <v>48842</v>
+        <v>70609</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14875,10 +14875,10 @@
         <v>278</v>
       </c>
       <c r="B197" s="34">
-        <v>44234</v>
+        <v>44232</v>
       </c>
       <c r="C197" s="31">
-        <v>15258</v>
+        <v>71689</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14886,10 +14886,10 @@
         <v>278</v>
       </c>
       <c r="B198" s="34">
-        <v>44235</v>
+        <v>44233</v>
       </c>
       <c r="C198" s="31">
-        <v>37438</v>
+        <v>48860</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14897,10 +14897,10 @@
         <v>278</v>
       </c>
       <c r="B199" s="34">
-        <v>44236</v>
+        <v>44234</v>
       </c>
       <c r="C199" s="31">
-        <v>50729</v>
+        <v>15259</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14908,10 +14908,10 @@
         <v>278</v>
       </c>
       <c r="B200" s="34">
-        <v>44237</v>
+        <v>44235</v>
       </c>
       <c r="C200" s="31">
-        <v>63221</v>
+        <v>37559</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14919,10 +14919,10 @@
         <v>278</v>
       </c>
       <c r="B201" s="34">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="C201" s="31">
-        <v>52949</v>
+        <v>50940</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14930,10 +14930,10 @@
         <v>278</v>
       </c>
       <c r="B202" s="34">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="C202" s="31">
-        <v>62680</v>
+        <v>63413</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14941,10 +14941,10 @@
         <v>278</v>
       </c>
       <c r="B203" s="34">
-        <v>44240</v>
+        <v>44238</v>
       </c>
       <c r="C203" s="31">
-        <v>31303</v>
+        <v>53117</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14952,10 +14952,10 @@
         <v>278</v>
       </c>
       <c r="B204" s="34">
-        <v>44241</v>
+        <v>44239</v>
       </c>
       <c r="C204" s="31">
-        <v>10405</v>
+        <v>63344</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14963,10 +14963,10 @@
         <v>278</v>
       </c>
       <c r="B205" s="34">
-        <v>44242</v>
+        <v>44240</v>
       </c>
       <c r="C205" s="31">
-        <v>2485</v>
+        <v>31866</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14974,10 +14974,10 @@
         <v>278</v>
       </c>
       <c r="B206" s="34">
-        <v>44243</v>
+        <v>44241</v>
       </c>
       <c r="C206" s="31">
-        <v>4437</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14985,10 +14985,10 @@
         <v>278</v>
       </c>
       <c r="B207" s="34">
-        <v>44244</v>
+        <v>44242</v>
       </c>
       <c r="C207" s="31">
-        <v>6359</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14996,10 +14996,10 @@
         <v>278</v>
       </c>
       <c r="B208" s="34">
-        <v>44245</v>
+        <v>44243</v>
       </c>
       <c r="C208" s="31">
-        <v>12610</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15007,10 +15007,10 @@
         <v>278</v>
       </c>
       <c r="B209" s="34">
-        <v>44246</v>
+        <v>44244</v>
       </c>
       <c r="C209" s="31">
-        <v>6626</v>
+        <v>6482</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15018,10 +15018,10 @@
         <v>278</v>
       </c>
       <c r="B210" s="34">
-        <v>44247</v>
+        <v>44245</v>
       </c>
       <c r="C210" s="31">
-        <v>10081</v>
+        <v>12847</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15029,43 +15029,43 @@
         <v>278</v>
       </c>
       <c r="B211" s="34">
-        <v>44248</v>
+        <v>44246</v>
       </c>
       <c r="C211" s="31">
-        <v>5752</v>
+        <v>7192</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B212" s="34">
-        <v>44179</v>
+        <v>44247</v>
       </c>
       <c r="C212" s="31">
-        <v>2</v>
+        <v>24074</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B213" s="34">
-        <v>44180</v>
+        <v>44248</v>
       </c>
       <c r="C213" s="31">
-        <v>8</v>
+        <v>8309</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B214" s="34">
-        <v>44181</v>
+        <v>44249</v>
       </c>
       <c r="C214" s="31">
-        <v>34</v>
+        <v>12197</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15073,10 +15073,10 @@
         <v>279</v>
       </c>
       <c r="B215" s="34">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="C215" s="31">
-        <v>69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15084,10 +15084,10 @@
         <v>279</v>
       </c>
       <c r="B216" s="34">
-        <v>44183</v>
+        <v>44180</v>
       </c>
       <c r="C216" s="31">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15095,10 +15095,10 @@
         <v>279</v>
       </c>
       <c r="B217" s="34">
-        <v>44184</v>
+        <v>44181</v>
       </c>
       <c r="C217" s="31">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15106,10 +15106,10 @@
         <v>279</v>
       </c>
       <c r="B218" s="34">
-        <v>44185</v>
+        <v>44182</v>
       </c>
       <c r="C218" s="31">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15117,10 +15117,10 @@
         <v>279</v>
       </c>
       <c r="B219" s="34">
-        <v>44186</v>
+        <v>44183</v>
       </c>
       <c r="C219" s="31">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15128,10 +15128,10 @@
         <v>279</v>
       </c>
       <c r="B220" s="34">
-        <v>44187</v>
+        <v>44184</v>
       </c>
       <c r="C220" s="31">
-        <v>164</v>
+        <v>47</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15139,10 +15139,10 @@
         <v>279</v>
       </c>
       <c r="B221" s="34">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="C221" s="31">
-        <v>585</v>
+        <v>89</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15150,10 +15150,10 @@
         <v>279</v>
       </c>
       <c r="B222" s="34">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="C222" s="31">
-        <v>409</v>
+        <v>62</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15161,10 +15161,10 @@
         <v>279</v>
       </c>
       <c r="B223" s="34">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="C223" s="31">
-        <v>57</v>
+        <v>164</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15172,10 +15172,10 @@
         <v>279</v>
       </c>
       <c r="B224" s="34">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="C224" s="31">
-        <v>509</v>
+        <v>585</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15183,10 +15183,10 @@
         <v>279</v>
       </c>
       <c r="B225" s="34">
-        <v>44192</v>
+        <v>44189</v>
       </c>
       <c r="C225" s="31">
-        <v>367</v>
+        <v>409</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15194,10 +15194,10 @@
         <v>279</v>
       </c>
       <c r="B226" s="34">
-        <v>44193</v>
+        <v>44190</v>
       </c>
       <c r="C226" s="31">
-        <v>2732</v>
+        <v>57</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15205,10 +15205,10 @@
         <v>279</v>
       </c>
       <c r="B227" s="34">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="C227" s="31">
-        <v>5577</v>
+        <v>509</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15216,10 +15216,10 @@
         <v>279</v>
       </c>
       <c r="B228" s="34">
-        <v>44195</v>
+        <v>44192</v>
       </c>
       <c r="C228" s="31">
-        <v>7221</v>
+        <v>367</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15227,10 +15227,10 @@
         <v>279</v>
       </c>
       <c r="B229" s="34">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="C229" s="31">
-        <v>3221</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15238,10 +15238,10 @@
         <v>279</v>
       </c>
       <c r="B230" s="34">
-        <v>44197</v>
+        <v>44194</v>
       </c>
       <c r="C230" s="31">
-        <v>422</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15249,10 +15249,10 @@
         <v>279</v>
       </c>
       <c r="B231" s="34">
-        <v>44198</v>
+        <v>44195</v>
       </c>
       <c r="C231" s="31">
-        <v>2071</v>
+        <v>7221</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15260,10 +15260,10 @@
         <v>279</v>
       </c>
       <c r="B232" s="34">
-        <v>44199</v>
+        <v>44196</v>
       </c>
       <c r="C232" s="31">
-        <v>1260</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15271,10 +15271,10 @@
         <v>279</v>
       </c>
       <c r="B233" s="34">
-        <v>44200</v>
+        <v>44197</v>
       </c>
       <c r="C233" s="31">
-        <v>6707</v>
+        <v>422</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15282,10 +15282,10 @@
         <v>279</v>
       </c>
       <c r="B234" s="34">
-        <v>44201</v>
+        <v>44198</v>
       </c>
       <c r="C234" s="31">
-        <v>5900</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15293,10 +15293,10 @@
         <v>279</v>
       </c>
       <c r="B235" s="34">
-        <v>44202</v>
+        <v>44199</v>
       </c>
       <c r="C235" s="31">
-        <v>7675</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15304,10 +15304,10 @@
         <v>279</v>
       </c>
       <c r="B236" s="34">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="C236" s="31">
-        <v>9525</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15315,10 +15315,10 @@
         <v>279</v>
       </c>
       <c r="B237" s="34">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="C237" s="31">
-        <v>8725</v>
+        <v>5901</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15326,10 +15326,10 @@
         <v>279</v>
       </c>
       <c r="B238" s="34">
-        <v>44205</v>
+        <v>44202</v>
       </c>
       <c r="C238" s="31">
-        <v>4764</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15337,10 +15337,10 @@
         <v>279</v>
       </c>
       <c r="B239" s="34">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="C239" s="31">
-        <v>1388</v>
+        <v>9528</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15348,10 +15348,10 @@
         <v>279</v>
       </c>
       <c r="B240" s="34">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="C240" s="31">
-        <v>8451</v>
+        <v>8728</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15359,10 +15359,10 @@
         <v>279</v>
       </c>
       <c r="B241" s="34">
-        <v>44208</v>
+        <v>44205</v>
       </c>
       <c r="C241" s="31">
-        <v>9367</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15370,10 +15370,10 @@
         <v>279</v>
       </c>
       <c r="B242" s="34">
-        <v>44209</v>
+        <v>44206</v>
       </c>
       <c r="C242" s="31">
-        <v>11664</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15381,10 +15381,10 @@
         <v>279</v>
       </c>
       <c r="B243" s="34">
-        <v>44210</v>
+        <v>44207</v>
       </c>
       <c r="C243" s="31">
-        <v>12210</v>
+        <v>8452</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15392,10 +15392,10 @@
         <v>279</v>
       </c>
       <c r="B244" s="34">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="C244" s="31">
-        <v>9062</v>
+        <v>9366</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15403,10 +15403,10 @@
         <v>279</v>
       </c>
       <c r="B245" s="34">
-        <v>44212</v>
+        <v>44209</v>
       </c>
       <c r="C245" s="31">
-        <v>5488</v>
+        <v>11665</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15414,10 +15414,10 @@
         <v>279</v>
       </c>
       <c r="B246" s="34">
-        <v>44213</v>
+        <v>44210</v>
       </c>
       <c r="C246" s="31">
-        <v>1726</v>
+        <v>12272</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15425,10 +15425,10 @@
         <v>279</v>
       </c>
       <c r="B247" s="34">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="C247" s="31">
-        <v>5194</v>
+        <v>9060</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15436,10 +15436,10 @@
         <v>279</v>
       </c>
       <c r="B248" s="34">
-        <v>44215</v>
+        <v>44212</v>
       </c>
       <c r="C248" s="31">
-        <v>8842</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15447,10 +15447,10 @@
         <v>279</v>
       </c>
       <c r="B249" s="34">
-        <v>44216</v>
+        <v>44213</v>
       </c>
       <c r="C249" s="31">
-        <v>11101</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15458,10 +15458,10 @@
         <v>279</v>
       </c>
       <c r="B250" s="34">
-        <v>44217</v>
+        <v>44214</v>
       </c>
       <c r="C250" s="31">
-        <v>10761</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15469,10 +15469,10 @@
         <v>279</v>
       </c>
       <c r="B251" s="34">
-        <v>44218</v>
+        <v>44215</v>
       </c>
       <c r="C251" s="31">
-        <v>8646</v>
+        <v>8868</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15480,10 +15480,10 @@
         <v>279</v>
       </c>
       <c r="B252" s="34">
-        <v>44219</v>
+        <v>44216</v>
       </c>
       <c r="C252" s="31">
-        <v>6120</v>
+        <v>11102</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15491,10 +15491,10 @@
         <v>279</v>
       </c>
       <c r="B253" s="34">
-        <v>44220</v>
+        <v>44217</v>
       </c>
       <c r="C253" s="31">
-        <v>2039</v>
+        <v>10759</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15502,10 +15502,10 @@
         <v>279</v>
       </c>
       <c r="B254" s="34">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="C254" s="31">
-        <v>9037</v>
+        <v>8648</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15513,10 +15513,10 @@
         <v>279</v>
       </c>
       <c r="B255" s="34">
-        <v>44222</v>
+        <v>44219</v>
       </c>
       <c r="C255" s="31">
-        <v>13289</v>
+        <v>6122</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15524,10 +15524,10 @@
         <v>279</v>
       </c>
       <c r="B256" s="34">
-        <v>44223</v>
+        <v>44220</v>
       </c>
       <c r="C256" s="31">
-        <v>15463</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15535,10 +15535,10 @@
         <v>279</v>
       </c>
       <c r="B257" s="34">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="C257" s="31">
-        <v>16155</v>
+        <v>9056</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15546,10 +15546,10 @@
         <v>279</v>
       </c>
       <c r="B258" s="34">
-        <v>44225</v>
+        <v>44222</v>
       </c>
       <c r="C258" s="31">
-        <v>13802</v>
+        <v>13326</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15557,10 +15557,10 @@
         <v>279</v>
       </c>
       <c r="B259" s="34">
-        <v>44226</v>
+        <v>44223</v>
       </c>
       <c r="C259" s="31">
-        <v>7141</v>
+        <v>15492</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15568,10 +15568,10 @@
         <v>279</v>
       </c>
       <c r="B260" s="34">
-        <v>44227</v>
+        <v>44224</v>
       </c>
       <c r="C260" s="31">
-        <v>3401</v>
+        <v>16187</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15579,10 +15579,10 @@
         <v>279</v>
       </c>
       <c r="B261" s="34">
-        <v>44228</v>
+        <v>44225</v>
       </c>
       <c r="C261" s="31">
-        <v>12705</v>
+        <v>13807</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15590,10 +15590,10 @@
         <v>279</v>
       </c>
       <c r="B262" s="34">
-        <v>44229</v>
+        <v>44226</v>
       </c>
       <c r="C262" s="31">
-        <v>16317</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15601,10 +15601,10 @@
         <v>279</v>
       </c>
       <c r="B263" s="34">
-        <v>44230</v>
+        <v>44227</v>
       </c>
       <c r="C263" s="31">
-        <v>17645</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15612,10 +15612,10 @@
         <v>279</v>
       </c>
       <c r="B264" s="34">
-        <v>44231</v>
+        <v>44228</v>
       </c>
       <c r="C264" s="31">
-        <v>19830</v>
+        <v>12981</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15623,10 +15623,10 @@
         <v>279</v>
       </c>
       <c r="B265" s="34">
-        <v>44232</v>
+        <v>44229</v>
       </c>
       <c r="C265" s="31">
-        <v>20918</v>
+        <v>16325</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15634,10 +15634,10 @@
         <v>279</v>
       </c>
       <c r="B266" s="34">
-        <v>44233</v>
+        <v>44230</v>
       </c>
       <c r="C266" s="31">
-        <v>12352</v>
+        <v>17669</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15645,10 +15645,10 @@
         <v>279</v>
       </c>
       <c r="B267" s="34">
-        <v>44234</v>
+        <v>44231</v>
       </c>
       <c r="C267" s="31">
-        <v>2994</v>
+        <v>19837</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15656,10 +15656,10 @@
         <v>279</v>
       </c>
       <c r="B268" s="34">
-        <v>44235</v>
+        <v>44232</v>
       </c>
       <c r="C268" s="31">
-        <v>11575</v>
+        <v>20964</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15667,10 +15667,10 @@
         <v>279</v>
       </c>
       <c r="B269" s="34">
-        <v>44236</v>
+        <v>44233</v>
       </c>
       <c r="C269" s="31">
-        <v>14370</v>
+        <v>12356</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15678,10 +15678,10 @@
         <v>279</v>
       </c>
       <c r="B270" s="34">
-        <v>44237</v>
+        <v>44234</v>
       </c>
       <c r="C270" s="31">
-        <v>18902</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15689,10 +15689,10 @@
         <v>279</v>
       </c>
       <c r="B271" s="34">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="C271" s="31">
-        <v>14802</v>
+        <v>11632</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15700,10 +15700,10 @@
         <v>279</v>
       </c>
       <c r="B272" s="34">
-        <v>44239</v>
+        <v>44236</v>
       </c>
       <c r="C272" s="31">
-        <v>17023</v>
+        <v>14436</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15711,10 +15711,10 @@
         <v>279</v>
       </c>
       <c r="B273" s="34">
-        <v>44240</v>
+        <v>44237</v>
       </c>
       <c r="C273" s="31">
-        <v>7771</v>
+        <v>18974</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15722,10 +15722,10 @@
         <v>279</v>
       </c>
       <c r="B274" s="34">
-        <v>44241</v>
+        <v>44238</v>
       </c>
       <c r="C274" s="31">
-        <v>2003</v>
+        <v>14865</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15733,10 +15733,10 @@
         <v>279</v>
       </c>
       <c r="B275" s="34">
-        <v>44242</v>
+        <v>44239</v>
       </c>
       <c r="C275" s="31">
-        <v>617</v>
+        <v>17218</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15744,10 +15744,10 @@
         <v>279</v>
       </c>
       <c r="B276" s="34">
-        <v>44243</v>
+        <v>44240</v>
       </c>
       <c r="C276" s="31">
-        <v>1056</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15755,10 +15755,10 @@
         <v>279</v>
       </c>
       <c r="B277" s="34">
-        <v>44244</v>
+        <v>44241</v>
       </c>
       <c r="C277" s="31">
-        <v>1784</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15766,10 +15766,10 @@
         <v>279</v>
       </c>
       <c r="B278" s="34">
-        <v>44245</v>
+        <v>44242</v>
       </c>
       <c r="C278" s="31">
-        <v>3349</v>
+        <v>628</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15777,10 +15777,10 @@
         <v>279</v>
       </c>
       <c r="B279" s="34">
-        <v>44246</v>
+        <v>44243</v>
       </c>
       <c r="C279" s="31">
-        <v>2178</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15788,10 +15788,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="34">
-        <v>44247</v>
+        <v>44244</v>
       </c>
       <c r="C280" s="31">
-        <v>3416</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15799,54 +15799,54 @@
         <v>279</v>
       </c>
       <c r="B281" s="34">
-        <v>44248</v>
+        <v>44245</v>
       </c>
       <c r="C281" s="31">
-        <v>1164</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B282" s="34">
-        <v>44180</v>
+        <v>44246</v>
       </c>
       <c r="C282" s="31">
-        <v>2</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B283" s="34">
-        <v>44181</v>
+        <v>44247</v>
       </c>
       <c r="C283" s="31">
-        <v>6</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B284" s="34">
-        <v>44182</v>
+        <v>44248</v>
       </c>
       <c r="C284" s="31">
-        <v>13</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B285" s="34">
-        <v>44183</v>
+        <v>44249</v>
       </c>
       <c r="C285" s="31">
-        <v>40</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -15854,10 +15854,10 @@
         <v>280</v>
       </c>
       <c r="B286" s="35">
-        <v>44184</v>
+        <v>44180</v>
       </c>
       <c r="C286" s="32">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -15865,10 +15865,10 @@
         <v>280</v>
       </c>
       <c r="B287" s="35">
-        <v>44185</v>
+        <v>44181</v>
       </c>
       <c r="C287" s="32">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -15876,10 +15876,10 @@
         <v>280</v>
       </c>
       <c r="B288" s="35">
-        <v>44186</v>
+        <v>44182</v>
       </c>
       <c r="C288" s="32">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -15887,10 +15887,10 @@
         <v>280</v>
       </c>
       <c r="B289" s="35">
-        <v>44187</v>
+        <v>44183</v>
       </c>
       <c r="C289" s="32">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -15898,10 +15898,10 @@
         <v>280</v>
       </c>
       <c r="B290" s="35">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="C290" s="32">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -15909,10 +15909,10 @@
         <v>280</v>
       </c>
       <c r="B291" s="35">
-        <v>44189</v>
+        <v>44185</v>
       </c>
       <c r="C291" s="32">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -15920,10 +15920,10 @@
         <v>280</v>
       </c>
       <c r="B292" s="35">
-        <v>44190</v>
+        <v>44186</v>
       </c>
       <c r="C292" s="32">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -15931,10 +15931,10 @@
         <v>280</v>
       </c>
       <c r="B293" s="35">
-        <v>44191</v>
+        <v>44187</v>
       </c>
       <c r="C293" s="32">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -15942,10 +15942,10 @@
         <v>280</v>
       </c>
       <c r="B294" s="35">
-        <v>44192</v>
+        <v>44188</v>
       </c>
       <c r="C294" s="32">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -15953,10 +15953,10 @@
         <v>280</v>
       </c>
       <c r="B295" s="35">
-        <v>44193</v>
+        <v>44189</v>
       </c>
       <c r="C295" s="32">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -15964,10 +15964,10 @@
         <v>280</v>
       </c>
       <c r="B296" s="35">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="C296" s="32">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -15975,10 +15975,10 @@
         <v>280</v>
       </c>
       <c r="B297" s="35">
-        <v>44195</v>
+        <v>44191</v>
       </c>
       <c r="C297" s="32">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -15986,10 +15986,10 @@
         <v>280</v>
       </c>
       <c r="B298" s="35">
-        <v>44196</v>
+        <v>44192</v>
       </c>
       <c r="C298" s="32">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -15997,10 +15997,10 @@
         <v>280</v>
       </c>
       <c r="B299" s="35">
-        <v>44197</v>
+        <v>44193</v>
       </c>
       <c r="C299" s="32">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -16008,10 +16008,10 @@
         <v>280</v>
       </c>
       <c r="B300" s="35">
-        <v>44198</v>
+        <v>44194</v>
       </c>
       <c r="C300" s="32">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -16019,10 +16019,10 @@
         <v>280</v>
       </c>
       <c r="B301" s="35">
-        <v>44199</v>
+        <v>44195</v>
       </c>
       <c r="C301" s="32">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -16030,10 +16030,10 @@
         <v>280</v>
       </c>
       <c r="B302" s="35">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="C302" s="32">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -16041,10 +16041,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="35">
-        <v>44201</v>
+        <v>44197</v>
       </c>
       <c r="C303" s="32">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -16052,10 +16052,10 @@
         <v>280</v>
       </c>
       <c r="B304" s="35">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="C304" s="32">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -16063,10 +16063,10 @@
         <v>280</v>
       </c>
       <c r="B305" s="35">
-        <v>44203</v>
+        <v>44199</v>
       </c>
       <c r="C305" s="32">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -16074,10 +16074,10 @@
         <v>280</v>
       </c>
       <c r="B306" s="35">
-        <v>44204</v>
+        <v>44200</v>
       </c>
       <c r="C306" s="32">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -16085,10 +16085,10 @@
         <v>280</v>
       </c>
       <c r="B307" s="35">
-        <v>44205</v>
+        <v>44201</v>
       </c>
       <c r="C307" s="32">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -16096,10 +16096,10 @@
         <v>280</v>
       </c>
       <c r="B308" s="35">
-        <v>44206</v>
+        <v>44202</v>
       </c>
       <c r="C308" s="32">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -16107,10 +16107,10 @@
         <v>280</v>
       </c>
       <c r="B309" s="35">
-        <v>44207</v>
+        <v>44203</v>
       </c>
       <c r="C309" s="32">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -16118,10 +16118,10 @@
         <v>280</v>
       </c>
       <c r="B310" s="35">
-        <v>44208</v>
+        <v>44204</v>
       </c>
       <c r="C310" s="32">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -16129,10 +16129,10 @@
         <v>280</v>
       </c>
       <c r="B311" s="35">
-        <v>44209</v>
+        <v>44205</v>
       </c>
       <c r="C311" s="32">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -16140,10 +16140,10 @@
         <v>280</v>
       </c>
       <c r="B312" s="35">
-        <v>44210</v>
+        <v>44206</v>
       </c>
       <c r="C312" s="32">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -16151,10 +16151,10 @@
         <v>280</v>
       </c>
       <c r="B313" s="35">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="C313" s="32">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -16162,10 +16162,10 @@
         <v>280</v>
       </c>
       <c r="B314" s="35">
-        <v>44212</v>
+        <v>44208</v>
       </c>
       <c r="C314" s="32">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -16173,10 +16173,10 @@
         <v>280</v>
       </c>
       <c r="B315" s="35">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="C315" s="32">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -16184,10 +16184,10 @@
         <v>280</v>
       </c>
       <c r="B316" s="35">
-        <v>44214</v>
+        <v>44210</v>
       </c>
       <c r="C316" s="32">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -16195,10 +16195,10 @@
         <v>280</v>
       </c>
       <c r="B317" s="35">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="C317" s="32">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -16206,10 +16206,10 @@
         <v>280</v>
       </c>
       <c r="B318" s="35">
-        <v>44216</v>
+        <v>44212</v>
       </c>
       <c r="C318" s="32">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -16217,10 +16217,10 @@
         <v>280</v>
       </c>
       <c r="B319" s="35">
-        <v>44217</v>
+        <v>44213</v>
       </c>
       <c r="C319" s="32">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -16228,10 +16228,10 @@
         <v>280</v>
       </c>
       <c r="B320" s="35">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="C320" s="32">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -16239,10 +16239,10 @@
         <v>280</v>
       </c>
       <c r="B321" s="35">
-        <v>44219</v>
+        <v>44215</v>
       </c>
       <c r="C321" s="32">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -16250,10 +16250,10 @@
         <v>280</v>
       </c>
       <c r="B322" s="35">
-        <v>44220</v>
+        <v>44216</v>
       </c>
       <c r="C322" s="32">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -16261,10 +16261,10 @@
         <v>280</v>
       </c>
       <c r="B323" s="35">
-        <v>44221</v>
+        <v>44217</v>
       </c>
       <c r="C323" s="32">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -16272,10 +16272,10 @@
         <v>280</v>
       </c>
       <c r="B324" s="35">
-        <v>44222</v>
+        <v>44218</v>
       </c>
       <c r="C324" s="32">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -16283,10 +16283,10 @@
         <v>280</v>
       </c>
       <c r="B325" s="35">
-        <v>44223</v>
+        <v>44219</v>
       </c>
       <c r="C325" s="32">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -16294,10 +16294,10 @@
         <v>280</v>
       </c>
       <c r="B326" s="35">
-        <v>44224</v>
+        <v>44220</v>
       </c>
       <c r="C326" s="32">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -16305,10 +16305,10 @@
         <v>280</v>
       </c>
       <c r="B327" s="35">
-        <v>44225</v>
+        <v>44221</v>
       </c>
       <c r="C327" s="32">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -16316,10 +16316,10 @@
         <v>280</v>
       </c>
       <c r="B328" s="35">
-        <v>44226</v>
+        <v>44222</v>
       </c>
       <c r="C328" s="32">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -16327,10 +16327,10 @@
         <v>280</v>
       </c>
       <c r="B329" s="35">
-        <v>44227</v>
+        <v>44223</v>
       </c>
       <c r="C329" s="32">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -16338,10 +16338,10 @@
         <v>280</v>
       </c>
       <c r="B330" s="35">
-        <v>44228</v>
+        <v>44224</v>
       </c>
       <c r="C330" s="32">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -16349,10 +16349,10 @@
         <v>280</v>
       </c>
       <c r="B331" s="35">
-        <v>44229</v>
+        <v>44225</v>
       </c>
       <c r="C331" s="32">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -16360,10 +16360,10 @@
         <v>280</v>
       </c>
       <c r="B332" s="35">
-        <v>44230</v>
+        <v>44226</v>
       </c>
       <c r="C332" s="32">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -16371,10 +16371,10 @@
         <v>280</v>
       </c>
       <c r="B333" s="35">
-        <v>44231</v>
+        <v>44227</v>
       </c>
       <c r="C333" s="32">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -16382,10 +16382,10 @@
         <v>280</v>
       </c>
       <c r="B334" s="35">
-        <v>44232</v>
+        <v>44228</v>
       </c>
       <c r="C334" s="32">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -16393,10 +16393,10 @@
         <v>280</v>
       </c>
       <c r="B335" s="35">
-        <v>44233</v>
+        <v>44229</v>
       </c>
       <c r="C335" s="32">
-        <v>52</v>
+        <v>89</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -16404,10 +16404,10 @@
         <v>280</v>
       </c>
       <c r="B336" s="35">
-        <v>44234</v>
+        <v>44230</v>
       </c>
       <c r="C336" s="32">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -16415,10 +16415,10 @@
         <v>280</v>
       </c>
       <c r="B337" s="35">
-        <v>44235</v>
+        <v>44231</v>
       </c>
       <c r="C337" s="32">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -16426,10 +16426,10 @@
         <v>280</v>
       </c>
       <c r="B338" s="35">
-        <v>44236</v>
+        <v>44232</v>
       </c>
       <c r="C338" s="32">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -16437,10 +16437,10 @@
         <v>280</v>
       </c>
       <c r="B339" s="35">
-        <v>44237</v>
+        <v>44233</v>
       </c>
       <c r="C339" s="32">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -16448,10 +16448,10 @@
         <v>280</v>
       </c>
       <c r="B340" s="35">
-        <v>44238</v>
+        <v>44234</v>
       </c>
       <c r="C340" s="32">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -16459,10 +16459,10 @@
         <v>280</v>
       </c>
       <c r="B341" s="35">
-        <v>44239</v>
+        <v>44235</v>
       </c>
       <c r="C341" s="32">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -16470,10 +16470,10 @@
         <v>280</v>
       </c>
       <c r="B342" s="35">
-        <v>44240</v>
+        <v>44236</v>
       </c>
       <c r="C342" s="32">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -16481,10 +16481,10 @@
         <v>280</v>
       </c>
       <c r="B343" s="35">
-        <v>44242</v>
+        <v>44237</v>
       </c>
       <c r="C343" s="32">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -16492,10 +16492,10 @@
         <v>280</v>
       </c>
       <c r="B344" s="35">
-        <v>44243</v>
+        <v>44238</v>
       </c>
       <c r="C344" s="32">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -16503,10 +16503,10 @@
         <v>280</v>
       </c>
       <c r="B345" s="35">
-        <v>44244</v>
+        <v>44239</v>
       </c>
       <c r="C345" s="32">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -16514,10 +16514,10 @@
         <v>280</v>
       </c>
       <c r="B346" s="35">
-        <v>44245</v>
+        <v>44240</v>
       </c>
       <c r="C346" s="32">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -16525,10 +16525,10 @@
         <v>280</v>
       </c>
       <c r="B347" s="35">
-        <v>44246</v>
+        <v>44242</v>
       </c>
       <c r="C347" s="32">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -16536,10 +16536,10 @@
         <v>280</v>
       </c>
       <c r="B348" s="35">
-        <v>44247</v>
+        <v>44243</v>
       </c>
       <c r="C348" s="32">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -16547,10 +16547,65 @@
         <v>280</v>
       </c>
       <c r="B349" s="35">
-        <v>44248</v>
+        <v>44244</v>
       </c>
       <c r="C349" s="32">
         <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B350" s="35">
+        <v>44245</v>
+      </c>
+      <c r="C350" s="32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B351" s="35">
+        <v>44246</v>
+      </c>
+      <c r="C351" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B352" s="35">
+        <v>44247</v>
+      </c>
+      <c r="C352" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B353" s="35">
+        <v>44248</v>
+      </c>
+      <c r="C353" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B354" s="35">
+        <v>44249</v>
+      </c>
+      <c r="C354" s="32">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
